--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Alemán\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepenaseco/Desktop/dev/PIGS/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EDB47E7-600B-49FA-B3FC-10529EC67127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2425C052-4E0E-AB44-A387-2C363803ABFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Tarea</t>
   </si>
@@ -106,6 +106,48 @@
   </si>
   <si>
     <t>(en blanco)</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>Peña Seco</t>
+  </si>
+  <si>
+    <t>Willy</t>
+  </si>
+  <si>
+    <t>Escovilla Biason</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>González Ramírez</t>
+  </si>
+  <si>
+    <t>DanTheMan</t>
+  </si>
+  <si>
+    <t>Díaz Martel</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Aparicio González</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Jose R.</t>
+  </si>
+  <si>
+    <t>Saraphi</t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
 </sst>
 </file>
@@ -341,7 +383,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Tracking (1).xlsx]HOURS_PERSON_TASK!Tabla dinámica3</c:name>
+    <c:name>[Tracking.xlsx]HOURS_PERSON_TASK!Tabla dinámica3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -864,7 +906,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Tracking (1).xlsx]HOURS_TASK_SUBTASK!Tabla dinámica6</c:name>
+    <c:name>[Tracking.xlsx]HOURS_TASK_SUBTASK!Tabla dinámica6</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1096,7 +1138,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Tracking (1).xlsx]HOURS_PERSON_DAY!Tabla dinámica3</c:name>
+    <c:name>[Tracking.xlsx]HOURS_PERSON_DAY!Tabla dinámica3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -6814,7 +6856,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -7391,7 +7433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
   <location ref="A1:C4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -7969,7 +8011,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
   <location ref="A1:C4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -8551,9 +8593,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8591,9 +8633,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8626,26 +8668,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8678,26 +8703,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8874,16 +8882,16 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -8894,47 +8902,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8953,18 +8991,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -8987,7 +9025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="30"/>
@@ -9008,7 +9046,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="30"/>
@@ -9029,7 +9067,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="30"/>
@@ -9050,7 +9088,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="30"/>
@@ -9071,7 +9109,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="30"/>
@@ -9092,7 +9130,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="30"/>
@@ -9113,7 +9151,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="30"/>
@@ -9134,7 +9172,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="30"/>
@@ -9155,7 +9193,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="30"/>
@@ -9176,7 +9214,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="30"/>
@@ -9197,7 +9235,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="30"/>
@@ -9218,7 +9256,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="30"/>
@@ -9239,7 +9277,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="30"/>
@@ -9260,7 +9298,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="30"/>
@@ -9281,7 +9319,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="30"/>
@@ -9302,7 +9340,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="30"/>
@@ -9323,7 +9361,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="30"/>
@@ -9344,7 +9382,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="30"/>
@@ -9365,7 +9403,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="30"/>
@@ -9386,7 +9424,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="30"/>
@@ -9407,7 +9445,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="30"/>
@@ -9428,7 +9466,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="30"/>
@@ -9449,7 +9487,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="30"/>
@@ -9470,7 +9508,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="30"/>
@@ -9491,7 +9529,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="30"/>
@@ -9512,7 +9550,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="30"/>
@@ -9533,7 +9571,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="30"/>
@@ -9554,7 +9592,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="30"/>
@@ -9575,7 +9613,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="30"/>
@@ -9596,7 +9634,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="30"/>
@@ -9617,7 +9655,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="30"/>
@@ -9638,7 +9676,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="30"/>
@@ -9659,7 +9697,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="30"/>
@@ -9680,7 +9718,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="30"/>
@@ -9701,7 +9739,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="30"/>
@@ -9722,7 +9760,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="30"/>
@@ -9743,7 +9781,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="30"/>
@@ -9764,7 +9802,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="30"/>
@@ -9785,7 +9823,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="30"/>
@@ -9806,7 +9844,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="30"/>
@@ -9827,7 +9865,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="30"/>
@@ -9848,7 +9886,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="30"/>
@@ -9869,7 +9907,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="30"/>
@@ -9890,7 +9928,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="30"/>
@@ -9911,7 +9949,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="30"/>
@@ -9932,7 +9970,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="30"/>
@@ -9953,7 +9991,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="30"/>
@@ -9974,7 +10012,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="30"/>
@@ -9995,7 +10033,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="30"/>
@@ -10016,7 +10054,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="30"/>
@@ -10037,7 +10075,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="30"/>
@@ -10058,7 +10096,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="30"/>
@@ -10079,7 +10117,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="24"/>
@@ -10100,7 +10138,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="24"/>
@@ -10121,7 +10159,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="24"/>
@@ -10142,7 +10180,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="24"/>
@@ -10163,7 +10201,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="24"/>
@@ -10184,7 +10222,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="24"/>
@@ -10205,7 +10243,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="24"/>
@@ -10226,7 +10264,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="24"/>
@@ -10247,7 +10285,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="24"/>
@@ -10268,7 +10306,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="24"/>
@@ -10289,7 +10327,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="24"/>
@@ -10310,7 +10348,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="24"/>
@@ -10331,7 +10369,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="24"/>
@@ -10352,7 +10390,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="24"/>
@@ -10373,7 +10411,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="24"/>
@@ -10394,7 +10432,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="24"/>
@@ -10415,7 +10453,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="24"/>
@@ -10436,7 +10474,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="24"/>
@@ -10457,7 +10495,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="24"/>
@@ -10478,7 +10516,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="24"/>
@@ -10499,7 +10537,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="24"/>
@@ -10520,7 +10558,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="24"/>
@@ -10541,7 +10579,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="24"/>
@@ -10562,7 +10600,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="24"/>
@@ -10583,7 +10621,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="24"/>
@@ -10604,7 +10642,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="24"/>
@@ -10625,7 +10663,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="24"/>
@@ -10646,7 +10684,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="24"/>
@@ -10667,7 +10705,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="24"/>
@@ -10688,7 +10726,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="24"/>
@@ -10709,7 +10747,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="24"/>
@@ -10730,7 +10768,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="24"/>
@@ -10751,7 +10789,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="24"/>
@@ -10772,7 +10810,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="24"/>
@@ -10793,7 +10831,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="24"/>
@@ -10814,7 +10852,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="24"/>
@@ -10835,7 +10873,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="24"/>
@@ -10856,7 +10894,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="24"/>
@@ -10877,7 +10915,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="24"/>
@@ -10898,7 +10936,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="24"/>
@@ -10919,7 +10957,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="24"/>
@@ -10940,7 +10978,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="24"/>
@@ -10961,7 +10999,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="24"/>
@@ -10982,7 +11020,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="24"/>
@@ -11003,7 +11041,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="24"/>
@@ -11024,7 +11062,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="24"/>
@@ -11045,7 +11083,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="24"/>
@@ -11066,7 +11104,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="24"/>
@@ -11087,7 +11125,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="24"/>
@@ -11108,7 +11146,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="24"/>
@@ -11129,7 +11167,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="24"/>
@@ -11150,7 +11188,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="24"/>
@@ -11171,7 +11209,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="24"/>
@@ -11192,7 +11230,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="24"/>
@@ -11213,7 +11251,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="24"/>
@@ -11234,7 +11272,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="24"/>
@@ -11255,7 +11293,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="24"/>
@@ -11276,7 +11314,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="24"/>
@@ -11297,7 +11335,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="24"/>
@@ -11318,7 +11356,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="24"/>
@@ -11339,7 +11377,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="24"/>
@@ -11360,7 +11398,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="24"/>
@@ -11381,7 +11419,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="24"/>
@@ -11402,7 +11440,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="24"/>
@@ -11423,7 +11461,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="24"/>
@@ -11444,7 +11482,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="24"/>
@@ -11465,7 +11503,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="24"/>
@@ -11486,7 +11524,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="24"/>
@@ -11507,7 +11545,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="24"/>
@@ -11528,7 +11566,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="24"/>
@@ -11549,7 +11587,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="24"/>
@@ -11570,7 +11608,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="24"/>
@@ -11591,7 +11629,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="24"/>
@@ -11612,7 +11650,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="24"/>
@@ -11633,7 +11671,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="24"/>
@@ -11654,7 +11692,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="24"/>
@@ -11675,7 +11713,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="24"/>
@@ -11696,7 +11734,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="24"/>
@@ -11717,7 +11755,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="24"/>
@@ -11738,7 +11776,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="24"/>
@@ -11759,7 +11797,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="24"/>
@@ -11780,7 +11818,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="24"/>
@@ -11801,7 +11839,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="24"/>
@@ -11822,7 +11860,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="24"/>
@@ -11843,7 +11881,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="24"/>
@@ -11864,7 +11902,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="24"/>
@@ -11885,7 +11923,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="24"/>
@@ -11906,7 +11944,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="24"/>
@@ -11927,7 +11965,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="24"/>
@@ -11948,7 +11986,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="24"/>
@@ -11969,7 +12007,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="24"/>
@@ -11990,7 +12028,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="24"/>
@@ -12011,7 +12049,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="24"/>
@@ -12032,7 +12070,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="24"/>
@@ -12053,7 +12091,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="24"/>
@@ -12074,7 +12112,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="24"/>
@@ -12095,7 +12133,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="24"/>
@@ -12131,19 +12169,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="41.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="35.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="41.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
@@ -12169,7 +12207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -12181,7 +12219,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -12193,7 +12231,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -12205,7 +12243,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -12217,7 +12255,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -12229,7 +12267,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -12241,7 +12279,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -12253,7 +12291,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -12265,7 +12303,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -12277,7 +12315,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -12289,7 +12327,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -12301,7 +12339,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -12313,7 +12351,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -12325,7 +12363,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -12337,7 +12375,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -12349,7 +12387,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -12361,7 +12399,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -12373,7 +12411,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -12385,7 +12423,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -12397,7 +12435,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -12409,7 +12447,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -12421,7 +12459,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -12433,7 +12471,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -12445,7 +12483,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -12457,7 +12495,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -12469,7 +12507,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -12481,7 +12519,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -12493,7 +12531,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -12505,7 +12543,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -12517,7 +12555,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -12529,7 +12567,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -12541,7 +12579,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -12553,7 +12591,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -12565,7 +12603,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -12577,7 +12615,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -12589,7 +12627,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -12601,7 +12639,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -12613,7 +12651,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -12625,7 +12663,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -12637,7 +12675,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -12649,7 +12687,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -12661,7 +12699,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -12673,7 +12711,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -12685,7 +12723,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -12697,7 +12735,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -12709,7 +12747,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -12721,7 +12759,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -12733,7 +12771,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -12745,7 +12783,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -12757,7 +12795,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -12769,7 +12807,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -12781,7 +12819,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -12793,7 +12831,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -12805,7 +12843,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -12817,7 +12855,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -12829,7 +12867,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -12841,7 +12879,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -12853,7 +12891,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -12865,7 +12903,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -12877,7 +12915,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -12889,7 +12927,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -12901,7 +12939,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -12913,7 +12951,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -12925,7 +12963,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="16"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -12937,7 +12975,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -12949,7 +12987,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -12961,7 +12999,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -12973,7 +13011,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -12985,7 +13023,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -12997,7 +13035,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -13009,7 +13047,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -13021,7 +13059,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -13033,7 +13071,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="16"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -13045,7 +13083,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -13057,7 +13095,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -13069,7 +13107,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="16"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -13081,7 +13119,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -13093,7 +13131,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -13105,7 +13143,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="31"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -13117,7 +13155,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -13129,7 +13167,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -13141,7 +13179,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="16"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -13153,7 +13191,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -13165,7 +13203,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="16"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -13177,7 +13215,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="16"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -13189,7 +13227,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="16"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -13201,7 +13239,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="16"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -13213,7 +13251,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="16"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -13225,7 +13263,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -13237,7 +13275,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="16"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -13249,7 +13287,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="16"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -13261,7 +13299,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="16"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -13273,7 +13311,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="16"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -13285,7 +13323,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="16"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -13297,7 +13335,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="16"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -13309,7 +13347,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="16"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -13321,7 +13359,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="16"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -13333,7 +13371,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="16"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -13345,7 +13383,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="16"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -13357,7 +13395,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="16"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -13369,7 +13407,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="16"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -13381,7 +13419,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="16"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -13393,7 +13431,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="16"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -13405,7 +13443,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="16"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -13417,7 +13455,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="16"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -13429,7 +13467,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="16"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -13441,7 +13479,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="16"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -13453,7 +13491,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="16"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -13465,7 +13503,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="16"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -13477,7 +13515,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="16"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -13489,7 +13527,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="16"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -13501,7 +13539,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="16"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -13513,7 +13551,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="16"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -13525,7 +13563,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="16"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -13537,7 +13575,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="16"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -13549,7 +13587,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="16"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -13561,7 +13599,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="16"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -13573,7 +13611,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="16"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -13585,7 +13623,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="16"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -13597,7 +13635,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="16"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -13609,7 +13647,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="16"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -13621,7 +13659,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="16"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -13633,7 +13671,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="16"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
@@ -13645,7 +13683,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="16"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -13657,7 +13695,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="16"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
@@ -13669,7 +13707,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="16"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -13681,7 +13719,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="16"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -13693,7 +13731,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="16"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -13705,7 +13743,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="16"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -13717,7 +13755,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="16"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -13729,7 +13767,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="16"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -13741,7 +13779,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="16"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
@@ -13753,7 +13791,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="16"/>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
@@ -13765,7 +13803,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="16"/>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -13777,7 +13815,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="16"/>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
@@ -13789,7 +13827,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="16"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -13801,7 +13839,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="16"/>
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
@@ -13813,7 +13851,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="16"/>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
@@ -13825,7 +13863,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="16"/>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
@@ -13837,7 +13875,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="16"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -13849,7 +13887,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="16"/>
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
@@ -13861,7 +13899,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="16"/>
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
@@ -13873,7 +13911,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="16"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
@@ -13885,7 +13923,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="16"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
@@ -13897,7 +13935,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="16"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
@@ -13909,7 +13947,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="16"/>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
@@ -13921,7 +13959,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="16"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
@@ -13933,7 +13971,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="16"/>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
@@ -13945,7 +13983,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="16"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
@@ -13957,7 +13995,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="16"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
@@ -13969,7 +14007,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="16"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -13981,7 +14019,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="16"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -13993,7 +14031,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="16"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
@@ -14005,7 +14043,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="16"/>
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
@@ -14017,7 +14055,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="16"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -14029,7 +14067,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="16"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
@@ -14041,7 +14079,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="16"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -14053,7 +14091,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="16"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -14065,7 +14103,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="16"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
@@ -14077,7 +14115,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="16"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -14089,7 +14127,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="16"/>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
@@ -14101,7 +14139,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="16"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -14113,7 +14151,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="16"/>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -14125,7 +14163,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="16"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -14137,7 +14175,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="16"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -14149,7 +14187,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="16"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
@@ -14161,7 +14199,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="16"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -14173,7 +14211,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="16"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
@@ -14185,7 +14223,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="16"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -14197,7 +14235,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="16"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -14209,7 +14247,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="16"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
@@ -14221,7 +14259,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="16"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -14233,7 +14271,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="16"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -14245,7 +14283,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="16"/>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -14257,7 +14295,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="16"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -14269,7 +14307,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="16"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -14281,7 +14319,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="16"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -14293,7 +14331,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="16"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -14305,7 +14343,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="16"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -14317,7 +14355,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="16"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -14329,7 +14367,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="16"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -14341,7 +14379,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="16"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -14353,7 +14391,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="16"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -14365,7 +14403,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="16"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -14377,7 +14415,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="16"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -14389,7 +14427,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="16"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -14401,7 +14439,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="16"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -14413,7 +14451,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="16"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -14425,7 +14463,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="16"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -14437,7 +14475,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="16"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -14449,7 +14487,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="16"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -14461,7 +14499,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="16"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
@@ -14473,7 +14511,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="16"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -14485,7 +14523,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="16"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -14497,7 +14535,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="16"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -14509,7 +14547,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="16"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -14521,7 +14559,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="16"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
@@ -14533,7 +14571,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="16"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -14545,7 +14583,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="16"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -14557,7 +14595,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="16"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -14569,7 +14607,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="16"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -14581,7 +14619,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="16"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -14593,7 +14631,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="16"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -14605,7 +14643,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="16"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -14617,7 +14655,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="16"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -14629,7 +14667,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="16"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -14641,7 +14679,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="16"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
@@ -14653,7 +14691,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="16"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -14665,7 +14703,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="16"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
@@ -14677,7 +14715,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="16"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -14689,7 +14727,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="16"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -14701,7 +14739,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="16"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -14713,7 +14751,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="16"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -14725,7 +14763,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="16"/>
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
@@ -14737,7 +14775,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="16"/>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
@@ -14749,7 +14787,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="16"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -14761,7 +14799,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="16"/>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
@@ -14773,7 +14811,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="16"/>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
@@ -14785,7 +14823,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="16"/>
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
@@ -14797,7 +14835,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="16"/>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
@@ -14809,7 +14847,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="16"/>
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
@@ -14821,7 +14859,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="16"/>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
@@ -14833,7 +14871,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="16"/>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
@@ -14845,7 +14883,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="16"/>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
@@ -14857,7 +14895,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="16"/>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
@@ -14869,7 +14907,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="16"/>
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
@@ -14881,7 +14919,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="16"/>
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
@@ -14893,7 +14931,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="16"/>
       <c r="B229" s="17"/>
       <c r="C229" s="17"/>
@@ -14905,7 +14943,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="16"/>
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
@@ -14917,7 +14955,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="16"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -14929,7 +14967,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="16"/>
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
@@ -14941,7 +14979,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="16"/>
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
@@ -14953,7 +14991,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="16"/>
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
@@ -14965,7 +15003,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="16"/>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
@@ -14977,7 +15015,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="16"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -14989,7 +15027,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="16"/>
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
@@ -15001,7 +15039,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="16"/>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -15013,7 +15051,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="16"/>
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
@@ -15025,7 +15063,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="16"/>
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
@@ -15037,7 +15075,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="16"/>
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
@@ -15049,7 +15087,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="16"/>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
@@ -15061,7 +15099,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="16"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
@@ -15073,7 +15111,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="16"/>
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
@@ -15085,7 +15123,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="16"/>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
@@ -15097,7 +15135,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="16"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
@@ -15109,7 +15147,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="16"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
@@ -15121,7 +15159,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="16"/>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
@@ -15133,7 +15171,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="16"/>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
@@ -15145,7 +15183,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="16"/>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
@@ -15157,7 +15195,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="16"/>
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
@@ -15169,7 +15207,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="16"/>
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
@@ -15181,7 +15219,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="16"/>
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
@@ -15193,7 +15231,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="16"/>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
@@ -15205,7 +15243,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="16"/>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
@@ -15217,7 +15255,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="16"/>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
@@ -15229,7 +15267,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="16"/>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
@@ -15241,7 +15279,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="16"/>
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
@@ -15253,7 +15291,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="16"/>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
@@ -15265,7 +15303,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="16"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
@@ -15277,7 +15315,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="16"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
@@ -15289,7 +15327,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="16"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
@@ -15301,7 +15339,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="16"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
@@ -15313,7 +15351,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="16"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
@@ -15325,7 +15363,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="16"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
@@ -15337,7 +15375,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="16"/>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
@@ -15349,7 +15387,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="16"/>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
@@ -15361,7 +15399,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="16"/>
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
@@ -15373,7 +15411,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="16"/>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
@@ -15385,7 +15423,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="16"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -15397,7 +15435,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="16"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
@@ -15409,7 +15447,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="16"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
@@ -15421,7 +15459,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="16"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
@@ -15433,7 +15471,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="16"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
@@ -15445,7 +15483,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="16"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
@@ -15457,7 +15495,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="16"/>
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
@@ -15469,7 +15507,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="16"/>
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
@@ -15481,7 +15519,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="16"/>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
@@ -15493,7 +15531,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="16"/>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
@@ -15505,7 +15543,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="16"/>
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
@@ -15517,7 +15555,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="16"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
@@ -15529,7 +15567,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="16"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
@@ -15541,7 +15579,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="16"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
@@ -15553,7 +15591,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="16"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
@@ -15565,7 +15603,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="16"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
@@ -15577,7 +15615,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="16"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -15589,7 +15627,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="16"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
@@ -15601,7 +15639,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="16"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
@@ -15613,7 +15651,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="16"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
@@ -15625,7 +15663,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="16"/>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
@@ -15637,7 +15675,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="16"/>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
@@ -15649,7 +15687,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="16"/>
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
@@ -15661,7 +15699,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="16"/>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
@@ -15673,7 +15711,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="16"/>
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
@@ -15685,7 +15723,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="16"/>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
@@ -15697,7 +15735,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="16"/>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
@@ -15709,7 +15747,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="16"/>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
@@ -15721,7 +15759,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="16"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
@@ -15733,7 +15771,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="16"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
@@ -15745,7 +15783,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="16"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
@@ -15757,7 +15795,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="16"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
@@ -15769,7 +15807,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="16"/>
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
@@ -15781,7 +15819,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="16"/>
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
@@ -15793,7 +15831,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="16"/>
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
@@ -15805,7 +15843,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="16"/>
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
@@ -15817,7 +15855,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="16"/>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
@@ -15829,7 +15867,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="16"/>
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
@@ -15841,7 +15879,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="16"/>
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
@@ -15853,7 +15891,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="16"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
@@ -15865,7 +15903,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="16"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
@@ -15877,7 +15915,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="16"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
@@ -15889,7 +15927,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="16"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
@@ -15901,7 +15939,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="16"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
@@ -15913,7 +15951,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="16"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
@@ -15925,7 +15963,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="16"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
@@ -15937,7 +15975,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="16"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
@@ -15949,7 +15987,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="16"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
@@ -15961,7 +15999,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="16"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
@@ -15973,7 +16011,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="16"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
@@ -15985,7 +16023,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="16"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
@@ -15997,7 +16035,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="16"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
@@ -16009,7 +16047,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="16"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
@@ -16021,7 +16059,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="16"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
@@ -16033,7 +16071,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="16"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
@@ -16045,7 +16083,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="16"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
@@ -16057,7 +16095,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="16"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
@@ -16069,7 +16107,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="16"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
@@ -16081,7 +16119,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="16"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
@@ -16093,7 +16131,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="16"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
@@ -16105,7 +16143,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="16"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
@@ -16117,7 +16155,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="16"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
@@ -16129,7 +16167,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="16"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
@@ -16141,7 +16179,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="16"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
@@ -16153,7 +16191,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="16"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
@@ -16165,7 +16203,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="16"/>
       <c r="B335" s="17"/>
       <c r="C335" s="17"/>
@@ -16177,7 +16215,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="16"/>
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
@@ -16189,7 +16227,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="16"/>
       <c r="B337" s="17"/>
       <c r="C337" s="17"/>
@@ -16201,7 +16239,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="16"/>
       <c r="B338" s="17"/>
       <c r="C338" s="17"/>
@@ -16213,7 +16251,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="16"/>
       <c r="B339" s="17"/>
       <c r="C339" s="17"/>
@@ -16225,7 +16263,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="16"/>
       <c r="B340" s="17"/>
       <c r="C340" s="17"/>
@@ -16237,7 +16275,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="16"/>
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
@@ -16249,7 +16287,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="16"/>
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
@@ -16261,7 +16299,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="16"/>
       <c r="B343" s="17"/>
       <c r="C343" s="17"/>
@@ -16273,7 +16311,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="16"/>
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
@@ -16285,7 +16323,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="16"/>
       <c r="B345" s="17"/>
       <c r="C345" s="17"/>
@@ -16297,7 +16335,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="16"/>
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
@@ -16309,7 +16347,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="16"/>
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
@@ -16321,7 +16359,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="16"/>
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
@@ -16333,7 +16371,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="16"/>
       <c r="B349" s="17"/>
       <c r="C349" s="17"/>
@@ -16345,7 +16383,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="16"/>
       <c r="B350" s="17"/>
       <c r="C350" s="17"/>
@@ -16357,7 +16395,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="16"/>
       <c r="B351" s="17"/>
       <c r="C351" s="17"/>
@@ -16369,7 +16407,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="16"/>
       <c r="B352" s="17"/>
       <c r="C352" s="17"/>
@@ -16381,7 +16419,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="16"/>
       <c r="B353" s="17"/>
       <c r="C353" s="17"/>
@@ -16393,7 +16431,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="16"/>
       <c r="B354" s="17"/>
       <c r="C354" s="17"/>
@@ -16405,7 +16443,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="16"/>
       <c r="B355" s="17"/>
       <c r="C355" s="17"/>
@@ -16417,7 +16455,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="16"/>
       <c r="B356" s="17"/>
       <c r="C356" s="17"/>
@@ -16429,7 +16467,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="16"/>
       <c r="B357" s="17"/>
       <c r="C357" s="17"/>
@@ -16441,7 +16479,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="16"/>
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
@@ -16453,7 +16491,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="16"/>
       <c r="B359" s="17"/>
       <c r="C359" s="17"/>
@@ -16465,7 +16503,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="16"/>
       <c r="B360" s="17"/>
       <c r="C360" s="17"/>
@@ -16477,7 +16515,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="16"/>
       <c r="B361" s="17"/>
       <c r="C361" s="17"/>
@@ -16489,7 +16527,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="16"/>
       <c r="B362" s="17"/>
       <c r="C362" s="17"/>
@@ -16501,7 +16539,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="16"/>
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
@@ -16513,7 +16551,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="16"/>
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
@@ -16525,7 +16563,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="16"/>
       <c r="B365" s="17"/>
       <c r="C365" s="17"/>
@@ -16537,7 +16575,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="16"/>
       <c r="B366" s="17"/>
       <c r="C366" s="17"/>
@@ -16549,7 +16587,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="16"/>
       <c r="B367" s="17"/>
       <c r="C367" s="17"/>
@@ -16561,7 +16599,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="16"/>
       <c r="B368" s="17"/>
       <c r="C368" s="17"/>
@@ -16573,7 +16611,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="16"/>
       <c r="B369" s="17"/>
       <c r="C369" s="17"/>
@@ -16585,7 +16623,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="16"/>
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
@@ -16597,7 +16635,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="16"/>
       <c r="B371" s="17"/>
       <c r="C371" s="17"/>
@@ -16609,7 +16647,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="16"/>
       <c r="B372" s="17"/>
       <c r="C372" s="17"/>
@@ -16621,7 +16659,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="16"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
@@ -16633,7 +16671,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="16"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
@@ -16645,7 +16683,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="16"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
@@ -16657,7 +16695,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="16"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
@@ -16669,7 +16707,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="16"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
@@ -16681,7 +16719,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="16"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
@@ -16693,7 +16731,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="16"/>
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
@@ -16705,7 +16743,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="16"/>
       <c r="B380" s="17"/>
       <c r="C380" s="17"/>
@@ -16717,7 +16755,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="16"/>
       <c r="B381" s="17"/>
       <c r="C381" s="17"/>
@@ -16729,7 +16767,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="16"/>
       <c r="B382" s="17"/>
       <c r="C382" s="17"/>
@@ -16741,7 +16779,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="16"/>
       <c r="B383" s="17"/>
       <c r="C383" s="17"/>
@@ -16753,7 +16791,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="16"/>
       <c r="B384" s="17"/>
       <c r="C384" s="17"/>
@@ -16765,7 +16803,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="16"/>
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
@@ -16777,7 +16815,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="16"/>
       <c r="B386" s="17"/>
       <c r="C386" s="17"/>
@@ -16789,7 +16827,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="16"/>
       <c r="B387" s="17"/>
       <c r="C387" s="17"/>
@@ -16801,7 +16839,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="16"/>
       <c r="B388" s="17"/>
       <c r="C388" s="17"/>
@@ -16813,7 +16851,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="16"/>
       <c r="B389" s="17"/>
       <c r="C389" s="17"/>
@@ -16825,7 +16863,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="16"/>
       <c r="B390" s="17"/>
       <c r="C390" s="17"/>
@@ -16837,7 +16875,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="16"/>
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
@@ -16849,7 +16887,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="16"/>
       <c r="B392" s="17"/>
       <c r="C392" s="17"/>
@@ -16861,7 +16899,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="16"/>
       <c r="B393" s="17"/>
       <c r="C393" s="17"/>
@@ -16873,7 +16911,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="16"/>
       <c r="B394" s="17"/>
       <c r="C394" s="17"/>
@@ -16885,7 +16923,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="16"/>
       <c r="B395" s="17"/>
       <c r="C395" s="17"/>
@@ -16897,7 +16935,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="16"/>
       <c r="B396" s="17"/>
       <c r="C396" s="17"/>
@@ -16909,7 +16947,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="16"/>
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
@@ -16921,7 +16959,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="16"/>
       <c r="B398" s="17"/>
       <c r="C398" s="17"/>
@@ -16933,7 +16971,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="16"/>
       <c r="B399" s="17"/>
       <c r="C399" s="17"/>
@@ -16945,7 +16983,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="16"/>
       <c r="B400" s="17"/>
       <c r="C400" s="17"/>
@@ -16957,7 +16995,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="16"/>
       <c r="B401" s="17"/>
       <c r="C401" s="17"/>
@@ -16969,7 +17007,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="16"/>
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
@@ -16981,7 +17019,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="16"/>
       <c r="B403" s="17"/>
       <c r="C403" s="17"/>
@@ -16993,7 +17031,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="16"/>
       <c r="B404" s="17"/>
       <c r="C404" s="17"/>
@@ -17005,7 +17043,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="16"/>
       <c r="B405" s="17"/>
       <c r="C405" s="17"/>
@@ -17017,7 +17055,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="16"/>
       <c r="B406" s="17"/>
       <c r="C406" s="17"/>
@@ -17029,7 +17067,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="16"/>
       <c r="B407" s="17"/>
       <c r="C407" s="17"/>
@@ -17041,7 +17079,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="16"/>
       <c r="B408" s="17"/>
       <c r="C408" s="17"/>
@@ -17053,7 +17091,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="16"/>
       <c r="B409" s="17"/>
       <c r="C409" s="17"/>
@@ -17065,7 +17103,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="16"/>
       <c r="B410" s="17"/>
       <c r="C410" s="17"/>
@@ -17077,7 +17115,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="16"/>
       <c r="B411" s="17"/>
       <c r="C411" s="17"/>
@@ -17089,7 +17127,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="16"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
@@ -17101,7 +17139,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="16"/>
       <c r="B413" s="17"/>
       <c r="C413" s="17"/>
@@ -17113,7 +17151,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="16"/>
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
@@ -17125,7 +17163,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="16"/>
       <c r="B415" s="17"/>
       <c r="C415" s="17"/>
@@ -17137,7 +17175,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="16"/>
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
@@ -17149,7 +17187,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="16"/>
       <c r="B417" s="17"/>
       <c r="C417" s="17"/>
@@ -17161,7 +17199,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="16"/>
       <c r="B418" s="17"/>
       <c r="C418" s="17"/>
@@ -17173,7 +17211,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="16"/>
       <c r="B419" s="17"/>
       <c r="C419" s="17"/>
@@ -17185,7 +17223,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="16"/>
       <c r="B420" s="17"/>
       <c r="C420" s="17"/>
@@ -17197,7 +17235,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="16"/>
       <c r="B421" s="17"/>
       <c r="C421" s="17"/>
@@ -17209,7 +17247,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="16"/>
       <c r="B422" s="17"/>
       <c r="C422" s="17"/>
@@ -17221,7 +17259,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="16"/>
       <c r="B423" s="17"/>
       <c r="C423" s="17"/>
@@ -17233,7 +17271,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="16"/>
       <c r="B424" s="17"/>
       <c r="C424" s="17"/>
@@ -17245,7 +17283,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="16"/>
       <c r="B425" s="17"/>
       <c r="C425" s="17"/>
@@ -17257,7 +17295,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="16"/>
       <c r="B426" s="17"/>
       <c r="C426" s="17"/>
@@ -17269,7 +17307,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="16"/>
       <c r="B427" s="17"/>
       <c r="C427" s="17"/>
@@ -17281,7 +17319,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="16"/>
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
@@ -17293,7 +17331,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="16"/>
       <c r="B429" s="17"/>
       <c r="C429" s="17"/>
@@ -17305,7 +17343,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="16"/>
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
@@ -17317,7 +17355,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="16"/>
       <c r="B431" s="17"/>
       <c r="C431" s="17"/>
@@ -17329,7 +17367,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="16"/>
       <c r="B432" s="17"/>
       <c r="C432" s="17"/>
@@ -17341,7 +17379,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="16"/>
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
@@ -17353,7 +17391,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="16"/>
       <c r="B434" s="17"/>
       <c r="C434" s="17"/>
@@ -17365,7 +17403,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="16"/>
       <c r="B435" s="17"/>
       <c r="C435" s="17"/>
@@ -17377,7 +17415,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="16"/>
       <c r="B436" s="17"/>
       <c r="C436" s="17"/>
@@ -17389,7 +17427,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="16"/>
       <c r="B437" s="17"/>
       <c r="C437" s="17"/>
@@ -17401,7 +17439,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="16"/>
       <c r="B438" s="17"/>
       <c r="C438" s="17"/>
@@ -17413,7 +17451,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="16"/>
       <c r="B439" s="17"/>
       <c r="C439" s="17"/>
@@ -17425,7 +17463,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="16"/>
       <c r="B440" s="17"/>
       <c r="C440" s="17"/>
@@ -17437,7 +17475,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="16"/>
       <c r="B441" s="17"/>
       <c r="C441" s="17"/>
@@ -17449,7 +17487,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="16"/>
       <c r="B442" s="17"/>
       <c r="C442" s="17"/>
@@ -17461,7 +17499,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="16"/>
       <c r="B443" s="17"/>
       <c r="C443" s="17"/>
@@ -17473,7 +17511,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="16"/>
       <c r="B444" s="17"/>
       <c r="C444" s="17"/>
@@ -17485,7 +17523,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="16"/>
       <c r="B445" s="17"/>
       <c r="C445" s="17"/>
@@ -17497,7 +17535,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="16"/>
       <c r="B446" s="17"/>
       <c r="C446" s="17"/>
@@ -17509,7 +17547,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="16"/>
       <c r="B447" s="17"/>
       <c r="C447" s="17"/>
@@ -17521,7 +17559,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="16"/>
       <c r="B448" s="17"/>
       <c r="C448" s="17"/>
@@ -17533,7 +17571,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="16"/>
       <c r="B449" s="17"/>
       <c r="C449" s="17"/>
@@ -17545,7 +17583,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="16"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
@@ -17557,7 +17595,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="16"/>
       <c r="B451" s="17"/>
       <c r="C451" s="17"/>
@@ -17569,7 +17607,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="16"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
@@ -17581,7 +17619,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="16"/>
       <c r="B453" s="17"/>
       <c r="C453" s="17"/>
@@ -17593,7 +17631,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="16"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
@@ -17605,7 +17643,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="16"/>
       <c r="B455" s="17"/>
       <c r="C455" s="17"/>
@@ -17617,7 +17655,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="16"/>
       <c r="B456" s="17"/>
       <c r="C456" s="17"/>
@@ -17629,7 +17667,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="16"/>
       <c r="B457" s="17"/>
       <c r="C457" s="17"/>
@@ -17641,7 +17679,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="16"/>
       <c r="B458" s="17"/>
       <c r="C458" s="17"/>
@@ -17653,7 +17691,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="16"/>
       <c r="B459" s="17"/>
       <c r="C459" s="17"/>
@@ -17665,7 +17703,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="16"/>
       <c r="B460" s="17"/>
       <c r="C460" s="17"/>
@@ -17677,7 +17715,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="16"/>
       <c r="B461" s="17"/>
       <c r="C461" s="17"/>
@@ -17689,7 +17727,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="16"/>
       <c r="B462" s="17"/>
       <c r="C462" s="17"/>
@@ -17701,7 +17739,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="16"/>
       <c r="B463" s="17"/>
       <c r="C463" s="17"/>
@@ -17713,7 +17751,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="16"/>
       <c r="B464" s="17"/>
       <c r="C464" s="17"/>
@@ -17725,7 +17763,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="16"/>
       <c r="B465" s="17"/>
       <c r="C465" s="17"/>
@@ -17737,7 +17775,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="16"/>
       <c r="B466" s="17"/>
       <c r="C466" s="17"/>
@@ -17749,7 +17787,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="16"/>
       <c r="B467" s="17"/>
       <c r="C467" s="17"/>
@@ -17761,7 +17799,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="16"/>
       <c r="B468" s="17"/>
       <c r="C468" s="17"/>
@@ -17773,7 +17811,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="16"/>
       <c r="B469" s="17"/>
       <c r="C469" s="17"/>
@@ -17785,7 +17823,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="16"/>
       <c r="B470" s="17"/>
       <c r="C470" s="17"/>
@@ -17797,7 +17835,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="16"/>
       <c r="B471" s="17"/>
       <c r="C471" s="17"/>
@@ -17809,7 +17847,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" s="16"/>
       <c r="B472" s="17"/>
       <c r="C472" s="17"/>
@@ -17821,7 +17859,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="16"/>
       <c r="B473" s="17"/>
       <c r="C473" s="17"/>
@@ -17833,7 +17871,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="16"/>
       <c r="B474" s="17"/>
       <c r="C474" s="17"/>
@@ -17845,7 +17883,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="16"/>
       <c r="B475" s="17"/>
       <c r="C475" s="17"/>
@@ -17857,7 +17895,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="16"/>
       <c r="B476" s="17"/>
       <c r="C476" s="17"/>
@@ -17869,7 +17907,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="16"/>
       <c r="B477" s="17"/>
       <c r="C477" s="17"/>
@@ -17881,7 +17919,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="16"/>
       <c r="B478" s="17"/>
       <c r="C478" s="17"/>
@@ -17893,7 +17931,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="16"/>
       <c r="B479" s="17"/>
       <c r="C479" s="17"/>
@@ -17905,7 +17943,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" s="16"/>
       <c r="B480" s="17"/>
       <c r="C480" s="17"/>
@@ -17917,7 +17955,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="16"/>
       <c r="B481" s="17"/>
       <c r="C481" s="17"/>
@@ -17929,7 +17967,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="16"/>
       <c r="B482" s="17"/>
       <c r="C482" s="17"/>
@@ -17941,7 +17979,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="16"/>
       <c r="B483" s="17"/>
       <c r="C483" s="17"/>
@@ -17953,7 +17991,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="16"/>
       <c r="B484" s="17"/>
       <c r="C484" s="17"/>
@@ -17965,7 +18003,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="16"/>
       <c r="B485" s="17"/>
       <c r="C485" s="17"/>
@@ -17977,7 +18015,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="16"/>
       <c r="B486" s="17"/>
       <c r="C486" s="17"/>
@@ -17989,7 +18027,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="16"/>
       <c r="B487" s="17"/>
       <c r="C487" s="17"/>
@@ -18001,7 +18039,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="16"/>
       <c r="B488" s="17"/>
       <c r="C488" s="17"/>
@@ -18013,7 +18051,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="16"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
@@ -18025,7 +18063,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="16"/>
       <c r="B490" s="17"/>
       <c r="C490" s="17"/>
@@ -18037,7 +18075,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="16"/>
       <c r="B491" s="17"/>
       <c r="C491" s="17"/>
@@ -18049,7 +18087,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="16"/>
       <c r="B492" s="17"/>
       <c r="C492" s="17"/>
@@ -18061,7 +18099,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="16"/>
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
@@ -18073,7 +18111,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="16"/>
       <c r="B494" s="17"/>
       <c r="C494" s="17"/>
@@ -18085,7 +18123,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="16"/>
       <c r="B495" s="17"/>
       <c r="C495" s="17"/>
@@ -18097,7 +18135,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="16"/>
       <c r="B496" s="17"/>
       <c r="C496" s="17"/>
@@ -18109,7 +18147,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="16"/>
       <c r="B497" s="17"/>
       <c r="C497" s="17"/>
@@ -18121,7 +18159,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="16"/>
       <c r="B498" s="17"/>
       <c r="C498" s="17"/>
@@ -18133,7 +18171,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="16"/>
       <c r="B499" s="17"/>
       <c r="C499" s="17"/>
@@ -18145,7 +18183,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="16"/>
       <c r="B500" s="17"/>
       <c r="C500" s="17"/>
@@ -18214,14 +18252,14 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -18229,7 +18267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -18237,7 +18275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>21</v>
       </c>
@@ -18245,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -18253,46 +18291,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18"/>
     </row>
   </sheetData>
@@ -18308,25 +18346,25 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -18340,7 +18378,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -18356,7 +18394,7 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -18372,7 +18410,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -18388,7 +18426,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -18396,7 +18434,7 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="E6"/>
       <c r="F6"/>
@@ -18404,7 +18442,7 @@
       <c r="H6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="E7"/>
       <c r="F7"/>
@@ -18412,7 +18450,7 @@
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="E8"/>
       <c r="F8"/>
@@ -18420,63 +18458,63 @@
       <c r="H8"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="D9" s="1"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10" s="1"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="G18"/>
       <c r="H18"/>
@@ -18495,17 +18533,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="104" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="104" width="11.5" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -18518,7 +18556,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -18533,7 +18571,7 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -18548,7 +18586,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -18563,7 +18601,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -18571,7 +18609,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -18579,7 +18617,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -18587,7 +18625,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -18595,7 +18633,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -18603,7 +18641,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -18611,7 +18649,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -18619,7 +18657,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -18627,7 +18665,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -18635,7 +18673,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -18643,7 +18681,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -18651,7 +18689,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -18659,7 +18697,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -18667,7 +18705,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -18675,7 +18713,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -18683,7 +18721,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -18691,7 +18729,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -18699,7 +18737,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -18707,7 +18745,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -18715,7 +18753,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -18723,7 +18761,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -18731,7 +18769,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -18739,7 +18777,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -18747,7 +18785,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -18755,7 +18793,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -18763,7 +18801,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -18771,7 +18809,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -18792,7 +18830,7 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepenaseco/Desktop/dev/PIGS/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2425C052-4E0E-AB44-A387-2C363803ABFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89143C5A-30B5-CC46-AF90-00E8D31C2B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Tarea</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Daniel</t>
+  </si>
+  <si>
+    <t>Choose Project Idea</t>
+  </si>
+  <si>
+    <t>Project Decision Meeting</t>
   </si>
 </sst>
 </file>
@@ -8881,7 +8887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -8988,7 +8994,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9026,37 +9032,43 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="B2" s="9"/>
       <c r="C2" s="30"/>
       <c r="D2" s="27" t="str">
         <f>IF(B2="","",SUMIF(TRACKING!E:E,B2,TRACKING!G:G))</f>
         <v/>
       </c>
-      <c r="E2" s="12" t="str">
+      <c r="E2" s="12">
         <f>IF(AND(A2="",B2=""),"",COUNTIF(D$1:D2,""))</f>
-        <v/>
-      </c>
-      <c r="F2" s="27" t="str">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27">
         <f t="shared" ref="F2" si="0">IF(A2="","",SUMIF(E:E,E2,C:C))</f>
-        <v/>
-      </c>
-      <c r="G2" s="27" t="str">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G2" s="27">
         <f>IF(A2="","",SUMIF(TRACKING!D:D,A2,TRACKING!G:G))</f>
-        <v/>
+        <v>0.20833333333333415</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="27" t="str">
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D3" s="27">
         <f>IF(B3="","",SUMIF(TRACKING!E:E,B3,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E3" s="12" t="str">
+        <v>0.20833333333333415</v>
+      </c>
+      <c r="E3" s="12">
         <f>IF(AND(A3="",B3=""),"",COUNTIF(D$1:D3,""))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F3" s="27" t="str">
         <f t="shared" ref="F3:F60" si="1">IF(A3="","",SUMIF(E:E,E3,C:C))</f>
@@ -12165,8 +12177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12208,63 +12220,123 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="21" t="str">
+      <c r="A2" s="16">
+        <v>45321</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0.46875</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="21">
         <f t="shared" ref="G2:G65" si="0">IF(D2="","",IF(C2&gt;B2,C2-B2,C2-B2+1))</f>
-        <v/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="21" t="str">
+      <c r="A3" s="16">
+        <v>45321</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.46875</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="21" t="str">
+      <c r="A4" s="16">
+        <v>45321</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.46875</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.1666666666666963E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="21" t="str">
+      <c r="A5" s="16">
+        <v>45321</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.46875</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.1666666666666963E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="21" t="str">
+      <c r="A6" s="16">
+        <v>45321</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.46875</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.1666666666666963E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepenaseco/Desktop/dev/PIGS/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarag\Desktop\home\estudios\universidad\4 curso\2 cuatri\pdigs\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC90101-CB15-D34E-ACF3-5B95576613E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4204890A-FC32-47C8-97C6-EF1D9D44CCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId8"/>
+    <pivotCache cacheId="72" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="53">
   <si>
     <t>Tarea</t>
   </si>
@@ -126,13 +126,7 @@
     <t>González Ramírez</t>
   </si>
   <si>
-    <t>DanTheMan</t>
-  </si>
-  <si>
     <t>Díaz Martel</t>
-  </si>
-  <si>
-    <t>Antoni</t>
   </si>
   <si>
     <t>Aparicio González</t>
@@ -142,9 +136,6 @@
   </si>
   <si>
     <t>Jose R.</t>
-  </si>
-  <si>
-    <t>Saraphi</t>
   </si>
   <si>
     <t>Daniel</t>
@@ -166,6 +157,48 @@
   </si>
   <si>
     <t>Desicion of tools for creating summary meeting</t>
+  </si>
+  <si>
+    <t>Description of Proposal</t>
+  </si>
+  <si>
+    <t>Market and Competition</t>
+  </si>
+  <si>
+    <t>Income Sources</t>
+  </si>
+  <si>
+    <t>Stakeholders</t>
+  </si>
+  <si>
+    <t>SWOT</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>Tools used in the document</t>
+  </si>
+  <si>
+    <t>This line has stopped working</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Corporative Identity Design</t>
+  </si>
+  <si>
+    <t>31-ene</t>
+  </si>
+  <si>
+    <t>01-feb</t>
+  </si>
+  <si>
+    <t>02-feb</t>
+  </si>
+  <si>
+    <t>03-feb</t>
   </si>
 </sst>
 </file>
@@ -252,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -345,11 +378,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="72">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="h:mm;@"/>
     </dxf>
@@ -893,6 +1049,19 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -921,16 +1090,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Antoni</c:v>
+                  <c:v>Antonio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DanTheMan</c:v>
+                  <c:v>Daniel</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pepe</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Saraphi</c:v>
+                  <c:v>Sara</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Willy</c:v>
@@ -980,16 +1149,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Antoni</c:v>
+                  <c:v>Antonio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DanTheMan</c:v>
+                  <c:v>Daniel</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pepe</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Saraphi</c:v>
+                  <c:v>Sara</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Willy</c:v>
@@ -1051,16 +1220,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Antoni</c:v>
+                  <c:v>Antonio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DanTheMan</c:v>
+                  <c:v>Daniel</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pepe</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Saraphi</c:v>
+                  <c:v>Sara</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Willy</c:v>
@@ -1078,19 +1247,19 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1111111111111112E-2</c:v>
+                  <c:v>0.21944444444444444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1111111111111112E-2</c:v>
+                  <c:v>0.19791666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1111111111111112E-2</c:v>
+                  <c:v>0.19027777777777777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1111111111111112E-2</c:v>
+                  <c:v>0.18124999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1111111111111112E-2</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,6 +1267,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1A7A-3640-B625-CBC1F4780304}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HOURS_PERSON_TASK!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corporative Identity Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HOURS_PERSON_TASK!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Antonio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Daniel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pepe</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sara</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Willy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HOURS_PERSON_TASK!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>3.0555555555555555E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7916666666666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0555555555555555E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D75D-4FD8-AC76-9442BC296291}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1304,9 +1538,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$9</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$18</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>(en blanco)</c:v>
@@ -1320,6 +1554,30 @@
                   <c:pt idx="3">
                     <c:v>Desicion of tools for creating summary meeting</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Description of Proposal</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Market and Competition</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Income Sources</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Stakeholders</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>SWOT</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Product Backlog</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Tools used in the document</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Logo</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1331,16 +1589,19 @@
                   <c:pt idx="2">
                     <c:v>Executive Summary</c:v>
                   </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Corporative Identity Design</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$9</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1352,6 +1613,30 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6111111111111115E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19930555555555557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1013888888888889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10972222222222222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.888888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10902777777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,6 +2183,19 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1914,7 +2212,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Antoni</c:v>
+                  <c:v>Antonio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1922,26 +2220,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30-ene</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>31-ene</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>01-feb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>02-feb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>03-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$B$3:$B$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>3.6111111111111108E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3055555555555558E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5833333333333326E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9444444444444445E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,7 +2280,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DanTheMan</c:v>
+                  <c:v>Daniel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1969,26 +2288,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30-ene</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>31-ene</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>01-feb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>02-feb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>03-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$C$3:$C$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>3.9583333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7638888888888892E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5833333333333326E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2016,26 +2356,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30-ene</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>31-ene</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>01-feb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>02-feb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>03-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$D$3:$D$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>3.9583333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12430555555555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.486111111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0555555555555555E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2055,7 +2416,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Saraphi</c:v>
+                  <c:v>Sara</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2063,26 +2424,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30-ene</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>31-ene</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>01-feb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>02-feb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>03-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$E$3:$E$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>3.9583333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15069444444444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9444444444444445E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7916666666666663E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2110,26 +2492,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30-ene</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>31-ene</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>01-feb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>02-feb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>03-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$F$3:$F$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>3.9583333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5416666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9722222222222225E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0555555555555555E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,24 +2560,36 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30-ene</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>31-ene</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>01-feb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>02-feb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>03-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$G$3:$G$5</c:f>
+              <c:f>HOURS_PERSON_DAY!$G$3:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2365,29 +2780,33 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jose Peña Seco" refreshedDate="45321.513084143517" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="S T" refreshedDate="45325.800990625001" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="DATE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-30T00:00:00" maxDate="2024-01-31T00:00:00" count="2">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-30T00:00:00" maxDate="2024-02-04T00:00:00" count="6">
         <d v="2024-01-30T00:00:00"/>
         <m/>
+        <d v="2024-01-31T00:00:00"/>
+        <d v="2024-02-01T00:00:00"/>
+        <d v="2024-02-02T00:00:00"/>
+        <d v="2024-02-03T00:00:00"/>
       </sharedItems>
       <fieldGroup par="7" base="0">
-        <rangePr groupBy="days" startDate="2024-01-30T00:00:00" endDate="2024-01-31T00:00:00"/>
+        <rangePr groupBy="days" startDate="2024-01-30T00:00:00" endDate="2024-02-04T00:00:00"/>
         <groupItems count="368">
           <s v="(en blanco)"/>
-          <s v="1-ene"/>
-          <s v="2-ene"/>
-          <s v="3-ene"/>
-          <s v="4-ene"/>
-          <s v="5-ene"/>
-          <s v="6-ene"/>
-          <s v="7-ene"/>
-          <s v="8-ene"/>
-          <s v="9-ene"/>
+          <s v="01-ene"/>
+          <s v="02-ene"/>
+          <s v="03-ene"/>
+          <s v="04-ene"/>
+          <s v="05-ene"/>
+          <s v="06-ene"/>
+          <s v="07-ene"/>
+          <s v="08-ene"/>
+          <s v="09-ene"/>
           <s v="10-ene"/>
           <s v="11-ene"/>
           <s v="12-ene"/>
@@ -2410,15 +2829,15 @@
           <s v="29-ene"/>
           <s v="30-ene"/>
           <s v="31-ene"/>
-          <s v="1-feb"/>
-          <s v="2-feb"/>
-          <s v="3-feb"/>
-          <s v="4-feb"/>
-          <s v="5-feb"/>
-          <s v="6-feb"/>
-          <s v="7-feb"/>
-          <s v="8-feb"/>
-          <s v="9-feb"/>
+          <s v="01-feb"/>
+          <s v="02-feb"/>
+          <s v="03-feb"/>
+          <s v="04-feb"/>
+          <s v="05-feb"/>
+          <s v="06-feb"/>
+          <s v="07-feb"/>
+          <s v="08-feb"/>
+          <s v="09-feb"/>
           <s v="10-feb"/>
           <s v="11-feb"/>
           <s v="12-feb"/>
@@ -2439,15 +2858,15 @@
           <s v="27-feb"/>
           <s v="28-feb"/>
           <s v="29-feb"/>
-          <s v="1-mar"/>
-          <s v="2-mar"/>
-          <s v="3-mar"/>
-          <s v="4-mar"/>
-          <s v="5-mar"/>
-          <s v="6-mar"/>
-          <s v="7-mar"/>
-          <s v="8-mar"/>
-          <s v="9-mar"/>
+          <s v="01-mar"/>
+          <s v="02-mar"/>
+          <s v="03-mar"/>
+          <s v="04-mar"/>
+          <s v="05-mar"/>
+          <s v="06-mar"/>
+          <s v="07-mar"/>
+          <s v="08-mar"/>
+          <s v="09-mar"/>
           <s v="10-mar"/>
           <s v="11-mar"/>
           <s v="12-mar"/>
@@ -2470,15 +2889,15 @@
           <s v="29-mar"/>
           <s v="30-mar"/>
           <s v="31-mar"/>
-          <s v="1-abr"/>
-          <s v="2-abr"/>
-          <s v="3-abr"/>
-          <s v="4-abr"/>
-          <s v="5-abr"/>
-          <s v="6-abr"/>
-          <s v="7-abr"/>
-          <s v="8-abr"/>
-          <s v="9-abr"/>
+          <s v="01-abr"/>
+          <s v="02-abr"/>
+          <s v="03-abr"/>
+          <s v="04-abr"/>
+          <s v="05-abr"/>
+          <s v="06-abr"/>
+          <s v="07-abr"/>
+          <s v="08-abr"/>
+          <s v="09-abr"/>
           <s v="10-abr"/>
           <s v="11-abr"/>
           <s v="12-abr"/>
@@ -2500,15 +2919,15 @@
           <s v="28-abr"/>
           <s v="29-abr"/>
           <s v="30-abr"/>
-          <s v="1-may"/>
-          <s v="2-may"/>
-          <s v="3-may"/>
-          <s v="4-may"/>
-          <s v="5-may"/>
-          <s v="6-may"/>
-          <s v="7-may"/>
-          <s v="8-may"/>
-          <s v="9-may"/>
+          <s v="01-may"/>
+          <s v="02-may"/>
+          <s v="03-may"/>
+          <s v="04-may"/>
+          <s v="05-may"/>
+          <s v="06-may"/>
+          <s v="07-may"/>
+          <s v="08-may"/>
+          <s v="09-may"/>
           <s v="10-may"/>
           <s v="11-may"/>
           <s v="12-may"/>
@@ -2531,15 +2950,15 @@
           <s v="29-may"/>
           <s v="30-may"/>
           <s v="31-may"/>
-          <s v="1-jun"/>
-          <s v="2-jun"/>
-          <s v="3-jun"/>
-          <s v="4-jun"/>
-          <s v="5-jun"/>
-          <s v="6-jun"/>
-          <s v="7-jun"/>
-          <s v="8-jun"/>
-          <s v="9-jun"/>
+          <s v="01-jun"/>
+          <s v="02-jun"/>
+          <s v="03-jun"/>
+          <s v="04-jun"/>
+          <s v="05-jun"/>
+          <s v="06-jun"/>
+          <s v="07-jun"/>
+          <s v="08-jun"/>
+          <s v="09-jun"/>
           <s v="10-jun"/>
           <s v="11-jun"/>
           <s v="12-jun"/>
@@ -2561,15 +2980,15 @@
           <s v="28-jun"/>
           <s v="29-jun"/>
           <s v="30-jun"/>
-          <s v="1-jul"/>
-          <s v="2-jul"/>
-          <s v="3-jul"/>
-          <s v="4-jul"/>
-          <s v="5-jul"/>
-          <s v="6-jul"/>
-          <s v="7-jul"/>
-          <s v="8-jul"/>
-          <s v="9-jul"/>
+          <s v="01-jul"/>
+          <s v="02-jul"/>
+          <s v="03-jul"/>
+          <s v="04-jul"/>
+          <s v="05-jul"/>
+          <s v="06-jul"/>
+          <s v="07-jul"/>
+          <s v="08-jul"/>
+          <s v="09-jul"/>
           <s v="10-jul"/>
           <s v="11-jul"/>
           <s v="12-jul"/>
@@ -2592,15 +3011,15 @@
           <s v="29-jul"/>
           <s v="30-jul"/>
           <s v="31-jul"/>
-          <s v="1-ago"/>
-          <s v="2-ago"/>
-          <s v="3-ago"/>
-          <s v="4-ago"/>
-          <s v="5-ago"/>
-          <s v="6-ago"/>
-          <s v="7-ago"/>
-          <s v="8-ago"/>
-          <s v="9-ago"/>
+          <s v="01-ago"/>
+          <s v="02-ago"/>
+          <s v="03-ago"/>
+          <s v="04-ago"/>
+          <s v="05-ago"/>
+          <s v="06-ago"/>
+          <s v="07-ago"/>
+          <s v="08-ago"/>
+          <s v="09-ago"/>
           <s v="10-ago"/>
           <s v="11-ago"/>
           <s v="12-ago"/>
@@ -2623,45 +3042,45 @@
           <s v="29-ago"/>
           <s v="30-ago"/>
           <s v="31-ago"/>
-          <s v="1-sept"/>
-          <s v="2-sept"/>
-          <s v="3-sept"/>
-          <s v="4-sept"/>
-          <s v="5-sept"/>
-          <s v="6-sept"/>
-          <s v="7-sept"/>
-          <s v="8-sept"/>
-          <s v="9-sept"/>
-          <s v="10-sept"/>
-          <s v="11-sept"/>
-          <s v="12-sept"/>
-          <s v="13-sept"/>
-          <s v="14-sept"/>
-          <s v="15-sept"/>
-          <s v="16-sept"/>
-          <s v="17-sept"/>
-          <s v="18-sept"/>
-          <s v="19-sept"/>
-          <s v="20-sept"/>
-          <s v="21-sept"/>
-          <s v="22-sept"/>
-          <s v="23-sept"/>
-          <s v="24-sept"/>
-          <s v="25-sept"/>
-          <s v="26-sept"/>
-          <s v="27-sept"/>
-          <s v="28-sept"/>
-          <s v="29-sept"/>
-          <s v="30-sept"/>
-          <s v="1-oct"/>
-          <s v="2-oct"/>
-          <s v="3-oct"/>
-          <s v="4-oct"/>
-          <s v="5-oct"/>
-          <s v="6-oct"/>
-          <s v="7-oct"/>
-          <s v="8-oct"/>
-          <s v="9-oct"/>
+          <s v="01-sep"/>
+          <s v="02-sep"/>
+          <s v="03-sep"/>
+          <s v="04-sep"/>
+          <s v="05-sep"/>
+          <s v="06-sep"/>
+          <s v="07-sep"/>
+          <s v="08-sep"/>
+          <s v="09-sep"/>
+          <s v="10-sep"/>
+          <s v="11-sep"/>
+          <s v="12-sep"/>
+          <s v="13-sep"/>
+          <s v="14-sep"/>
+          <s v="15-sep"/>
+          <s v="16-sep"/>
+          <s v="17-sep"/>
+          <s v="18-sep"/>
+          <s v="19-sep"/>
+          <s v="20-sep"/>
+          <s v="21-sep"/>
+          <s v="22-sep"/>
+          <s v="23-sep"/>
+          <s v="24-sep"/>
+          <s v="25-sep"/>
+          <s v="26-sep"/>
+          <s v="27-sep"/>
+          <s v="28-sep"/>
+          <s v="29-sep"/>
+          <s v="30-sep"/>
+          <s v="01-oct"/>
+          <s v="02-oct"/>
+          <s v="03-oct"/>
+          <s v="04-oct"/>
+          <s v="05-oct"/>
+          <s v="06-oct"/>
+          <s v="07-oct"/>
+          <s v="08-oct"/>
+          <s v="09-oct"/>
           <s v="10-oct"/>
           <s v="11-oct"/>
           <s v="12-oct"/>
@@ -2684,15 +3103,15 @@
           <s v="29-oct"/>
           <s v="30-oct"/>
           <s v="31-oct"/>
-          <s v="1-nov"/>
-          <s v="2-nov"/>
-          <s v="3-nov"/>
-          <s v="4-nov"/>
-          <s v="5-nov"/>
-          <s v="6-nov"/>
-          <s v="7-nov"/>
-          <s v="8-nov"/>
-          <s v="9-nov"/>
+          <s v="01-nov"/>
+          <s v="02-nov"/>
+          <s v="03-nov"/>
+          <s v="04-nov"/>
+          <s v="05-nov"/>
+          <s v="06-nov"/>
+          <s v="07-nov"/>
+          <s v="08-nov"/>
+          <s v="09-nov"/>
           <s v="10-nov"/>
           <s v="11-nov"/>
           <s v="12-nov"/>
@@ -2714,15 +3133,15 @@
           <s v="28-nov"/>
           <s v="29-nov"/>
           <s v="30-nov"/>
-          <s v="1-dic"/>
-          <s v="2-dic"/>
-          <s v="3-dic"/>
-          <s v="4-dic"/>
-          <s v="5-dic"/>
-          <s v="6-dic"/>
-          <s v="7-dic"/>
-          <s v="8-dic"/>
-          <s v="9-dic"/>
+          <s v="01-dic"/>
+          <s v="02-dic"/>
+          <s v="03-dic"/>
+          <s v="04-dic"/>
+          <s v="05-dic"/>
+          <s v="06-dic"/>
+          <s v="07-dic"/>
+          <s v="08-dic"/>
+          <s v="09-dic"/>
           <s v="10-dic"/>
           <s v="11-dic"/>
           <s v="12-dic"/>
@@ -2745,19 +3164,28 @@
           <s v="29-dic"/>
           <s v="30-dic"/>
           <s v="31-dic"/>
-          <s v="&gt;31/1/24"/>
+          <s v="&gt;04/02/2024"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="STARTING TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T11:15:00" maxDate="1899-12-30T12:00:00" count="4">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T11:15:00" maxDate="1899-12-30T22:13:00" count="13">
         <d v="1899-12-30T11:15:00"/>
         <d v="1899-12-30T11:20:00"/>
         <d v="1899-12-30T12:00:00"/>
         <m/>
+        <d v="1899-12-30T18:02:00"/>
+        <d v="1899-12-30T18:37:00"/>
+        <d v="1899-12-30T18:32:00"/>
+        <d v="1899-12-30T20:00:00"/>
+        <d v="1899-12-30T16:12:00"/>
+        <d v="1899-12-30T17:40:00"/>
+        <d v="1899-12-30T22:13:00"/>
+        <d v="1899-12-30T18:00:00"/>
+        <d v="1899-12-30T17:46:00"/>
       </sharedItems>
       <fieldGroup base="1">
-        <rangePr groupBy="hours" startDate="1899-12-30T11:15:00" endDate="1899-12-30T12:00:00"/>
+        <rangePr groupBy="hours" startDate="1899-12-30T11:15:00" endDate="1899-12-30T22:13:00"/>
         <groupItems count="26">
           <s v="(en blanco)"/>
           <s v="0"/>
@@ -2784,18 +3212,30 @@
           <s v="21"/>
           <s v="22"/>
           <s v="23"/>
-          <s v="&gt;0/1/00"/>
+          <s v="&gt;00/01/1900"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="FINAL TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T11:56:00" maxDate="1899-12-30T12:16:00" count="3">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T11:56:00" maxDate="1899-12-30T23:39:00" count="15">
         <d v="1899-12-30T11:56:00"/>
         <d v="1899-12-30T12:16:00"/>
         <m/>
+        <d v="1899-12-30T18:28:00"/>
+        <d v="1899-12-30T21:10:00"/>
+        <d v="1899-12-30T20:51:00"/>
+        <d v="1899-12-30T19:45:00"/>
+        <d v="1899-12-30T20:24:00"/>
+        <d v="1899-12-30T20:10:00"/>
+        <d v="1899-12-30T17:31:00"/>
+        <d v="1899-12-30T19:58:00"/>
+        <d v="1899-12-30T23:39:00"/>
+        <d v="1899-12-30T23:01:00"/>
+        <d v="1899-12-30T18:30:00"/>
+        <d v="1899-12-30T18:55:00"/>
       </sharedItems>
       <fieldGroup par="8" base="2">
-        <rangePr groupBy="minutes" startDate="1899-12-30T11:56:00" endDate="1899-12-30T12:16:00"/>
+        <rangePr groupBy="minutes" startDate="1899-12-30T11:56:00" endDate="1899-12-30T23:39:00"/>
         <groupItems count="62">
           <s v="(en blanco)"/>
           <s v=":00"/>
@@ -2858,43 +3298,52 @@
           <s v=":57"/>
           <s v=":58"/>
           <s v=":59"/>
-          <s v="&gt;0/1/00"/>
+          <s v="&gt;00/01/1900"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="TASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <s v="Choose Project Idea"/>
         <s v="Executive Summary"/>
         <m/>
+        <s v="Corporative Identity Design"/>
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="12">
         <s v="Project Decision Meeting"/>
         <s v="Base scaffold"/>
         <s v="Desicion of tools for creating summary meeting"/>
         <m/>
+        <s v="Description of Proposal"/>
+        <s v="Market and Competition"/>
+        <s v="Income Sources"/>
+        <s v="Stakeholders"/>
+        <s v="SWOT"/>
+        <s v="Product Backlog"/>
+        <s v="Tools used in the document"/>
+        <s v="Logo"/>
       </sharedItems>
     </cacheField>
     <cacheField name="AUTHOR" numFmtId="0">
       <sharedItems containsBlank="1" count="6">
         <s v="Pepe"/>
         <s v="Willy"/>
-        <s v="Saraphi"/>
-        <s v="DanTheMan"/>
-        <s v="Antoni"/>
+        <s v="Sara"/>
+        <s v="Daniel"/>
+        <s v="Antonio"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="DURATION" numFmtId="164">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T00:16:00" maxDate="1899-12-30T00:41:00"/>
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T00:10:00" maxDate="1899-12-30T02:33:00"/>
     </cacheField>
     <cacheField name="Meses" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2024-01-30T00:00:00" endDate="2024-01-31T00:00:00"/>
+        <rangePr groupBy="months" startDate="2024-01-30T00:00:00" endDate="2024-02-04T00:00:00"/>
         <groupItems count="14">
-          <s v="&lt;30/1/24"/>
+          <s v="&lt;30/01/2024"/>
           <s v="ene"/>
           <s v="feb"/>
           <s v="mar"/>
@@ -2903,19 +3352,19 @@
           <s v="jun"/>
           <s v="jul"/>
           <s v="ago"/>
-          <s v="sept"/>
+          <s v="sep"/>
           <s v="oct"/>
           <s v="nov"/>
           <s v="dic"/>
-          <s v="&gt;31/1/24"/>
+          <s v="&gt;04/02/2024"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="Horas" numFmtId="0" databaseField="0">
       <fieldGroup base="2">
-        <rangePr groupBy="hours" startDate="1899-12-30T11:56:00" endDate="1899-12-30T12:16:00"/>
+        <rangePr groupBy="hours" startDate="1899-12-30T11:56:00" endDate="1899-12-30T23:39:00"/>
         <groupItems count="26">
-          <s v="&lt;0/1/00"/>
+          <s v="&lt;00/01/1900"/>
           <s v="0"/>
           <s v="1"/>
           <s v="2"/>
@@ -2940,7 +3389,7 @@
           <s v="21"/>
           <s v="22"/>
           <s v="23"/>
-          <s v="&gt;0/1/00"/>
+          <s v="&gt;00/01/1900"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -3055,193 +3504,193 @@
     <d v="1899-12-30T00:16:00"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
-    <s v=""/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:26:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:26:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <d v="1899-12-30T02:33:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <d v="1899-12-30T02:14:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <d v="1899-12-30T01:13:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <d v="1899-12-30T01:13:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:24:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <d v="1899-12-30T00:10:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <d v="1899-12-30T01:19:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <d v="1899-12-30T01:19:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="4"/>
+    <d v="1899-12-30T02:18:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+    <d v="1899-12-30T02:18:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <d v="1899-12-30T02:18:00"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <d v="1899-12-30T01:26:00"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <d v="1899-12-30T00:48:00"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:28:00"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="4"/>
+    <d v="1899-12-30T00:28:00"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:44:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T01:09:00"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:44:00"/>
   </r>
   <r>
     <x v="1"/>
@@ -7459,8 +7908,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A1:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -7904,19 +8353,28 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="5">
+      <items count="13">
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7977,7 +8435,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="17">
     <i>
       <x/>
     </i>
@@ -7999,6 +8457,33 @@
     <i r="1">
       <x v="3"/>
     </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -8010,10 +8495,10 @@
     <dataField name="Suma de DURATION" fld="6" baseField="3" baseItem="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="31">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8056,8 +8541,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
-  <location ref="A1:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
+  <location ref="A1:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8501,10 +8986,11 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8601,7 +9087,7 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="5">
     <i>
       <x/>
     </i>
@@ -8611,6 +9097,9 @@
     <i>
       <x v="2"/>
     </i>
+    <i>
+      <x v="3"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -8619,17 +9108,17 @@
     <dataField name="Suma de DURATION" fld="6" baseField="5" baseItem="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="29">
+    <format dxfId="69">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="68">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="4">
+  <chartFormats count="5">
     <chartFormat chart="2" format="30" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -8675,6 +9164,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="40" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -8686,8 +9187,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
-  <location ref="A1:H5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
+  <location ref="A1:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="369">
@@ -9198,12 +9699,24 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
     <i>
       <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="247"/>
+    </i>
+    <i>
+      <x v="248"/>
+    </i>
+    <i>
+      <x v="249"/>
     </i>
     <i t="grand">
       <x/>
@@ -9239,17 +9752,17 @@
     <dataField name="Suma de DURATION" fld="6" baseField="0" baseItem="264"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="26">
+    <format dxfId="66">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="7">
+  <chartFormats count="5">
     <chartFormat chart="2" format="31" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -9280,18 +9793,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="38" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
     <chartFormat chart="2" format="39" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -9300,18 +9801,6 @@
           </reference>
           <reference field="5" count="1" selected="0">
             <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="40" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -9628,16 +10117,16 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -9648,7 +10137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -9656,10 +10145,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -9670,9 +10159,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -9681,44 +10170,44 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -9734,21 +10223,21 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -9771,9 +10260,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="30"/>
@@ -9794,10 +10283,10 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="30">
         <v>0.16666666666666666</v>
@@ -9819,9 +10308,9 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="30"/>
@@ -9835,17 +10324,17 @@
       </c>
       <c r="F4" s="27">
         <f t="shared" si="1"/>
-        <v>6.9444444444444448E-2</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="G4" s="27">
         <f>IF(A4="","",SUMIF(TRACKING!D:D,A4,TRACKING!G:G))</f>
-        <v>5.5555555555555913E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.94513888888888831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="30">
         <v>2.7777777777777776E-2</v>
@@ -9867,10 +10356,10 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="30">
         <v>4.1666666666666664E-2</v>
@@ -9892,17 +10381,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="27" t="str">
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D7" s="27">
         <f>IF(B7="","",SUMIF(TRACKING!E:E,B7,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E7" s="12" t="str">
+        <v>3.6111111111110761E-2</v>
+      </c>
+      <c r="E7" s="12">
         <f>IF(AND(A7="",B7=""),"",COUNTIF(D$1:D7,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F7" s="27" t="str">
         <f t="shared" si="1"/>
@@ -9913,17 +10406,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="27" t="str">
+      <c r="B8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D8" s="27">
         <f>IF(B8="","",SUMIF(TRACKING!E:E,B8,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E8" s="12" t="str">
+        <v>0.19930555555555562</v>
+      </c>
+      <c r="E8" s="12">
         <f>IF(AND(A8="",B8=""),"",COUNTIF(D$1:D8,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F8" s="27" t="str">
         <f t="shared" si="1"/>
@@ -9934,17 +10431,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="27" t="str">
+      <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D9" s="27">
         <f>IF(B9="","",SUMIF(TRACKING!E:E,B9,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E9" s="12" t="str">
+        <v>0.10138888888888875</v>
+      </c>
+      <c r="E9" s="12">
         <f>IF(AND(A9="",B9=""),"",COUNTIF(D$1:D9,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F9" s="27" t="str">
         <f t="shared" si="1"/>
@@ -9955,17 +10456,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="27" t="str">
+      <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="27">
         <f>IF(B10="","",SUMIF(TRACKING!E:E,B10,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E10" s="12" t="str">
+        <v>0.11666666666666659</v>
+      </c>
+      <c r="E10" s="12">
         <f>IF(AND(A10="",B10=""),"",COUNTIF(D$1:D10,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F10" s="27" t="str">
         <f t="shared" si="1"/>
@@ -9976,17 +10481,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="27" t="str">
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D11" s="27">
         <f>IF(B11="","",SUMIF(TRACKING!E:E,B11,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E11" s="12" t="str">
+        <v>0.10972222222222228</v>
+      </c>
+      <c r="E11" s="12">
         <f>IF(AND(A11="",B11=""),"",COUNTIF(D$1:D11,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F11" s="27" t="str">
         <f t="shared" si="1"/>
@@ -9997,17 +10506,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="27" t="str">
+      <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="27">
         <f>IF(B12="","",SUMIF(TRACKING!E:E,B12,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E12" s="12" t="str">
+        <v>0.28749999999999964</v>
+      </c>
+      <c r="E12" s="12">
         <f>IF(AND(A12="",B12=""),"",COUNTIF(D$1:D12,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F12" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10018,17 +10531,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="27" t="str">
+      <c r="B13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="30">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D13" s="27">
         <f>IF(B13="","",SUMIF(TRACKING!E:E,B13,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E13" s="12" t="str">
+        <v>3.8888888888888751E-2</v>
+      </c>
+      <c r="E13" s="12">
         <f>IF(AND(A13="",B13=""),"",COUNTIF(D$1:D13,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F13" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10039,38 +10556,44 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B14" s="9"/>
       <c r="C14" s="30"/>
       <c r="D14" s="27" t="str">
         <f>IF(B14="","",SUMIF(TRACKING!E:E,B14,TRACKING!G:G))</f>
         <v/>
       </c>
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="12">
         <f>IF(AND(A14="",B14=""),"",COUNTIF(D$1:D14,""))</f>
-        <v/>
-      </c>
-      <c r="F14" s="27" t="str">
+        <v>3</v>
+      </c>
+      <c r="F14" s="27">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G14" s="27" t="str">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G14" s="27">
         <f>IF(A14="","",SUMIF(TRACKING!D:D,A14,TRACKING!G:G))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.10902777777777817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27" t="str">
+      <c r="B15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D15" s="27">
         <f>IF(B15="","",SUMIF(TRACKING!E:E,B15,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E15" s="12" t="str">
+        <v>0.10902777777777817</v>
+      </c>
+      <c r="E15" s="12">
         <f>IF(AND(A15="",B15=""),"",COUNTIF(D$1:D15,""))</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F15" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10081,7 +10604,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="30"/>
@@ -10102,7 +10625,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="30"/>
@@ -10123,7 +10646,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="30"/>
@@ -10144,7 +10667,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="30"/>
@@ -10165,7 +10688,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="30"/>
@@ -10186,7 +10709,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="30"/>
@@ -10207,7 +10730,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="30"/>
@@ -10228,7 +10751,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="30"/>
@@ -10249,7 +10772,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="30"/>
@@ -10270,7 +10793,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="30"/>
@@ -10291,7 +10814,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="30"/>
@@ -10312,7 +10835,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="30"/>
@@ -10333,7 +10856,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="30"/>
@@ -10354,7 +10877,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="30"/>
@@ -10375,7 +10898,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="30"/>
@@ -10396,7 +10919,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="30"/>
@@ -10417,7 +10940,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="30"/>
@@ -10438,7 +10961,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="30"/>
@@ -10459,7 +10982,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="30"/>
@@ -10480,7 +11003,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="30"/>
@@ -10501,7 +11024,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="30"/>
@@ -10522,7 +11045,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="30"/>
@@ -10543,7 +11066,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="30"/>
@@ -10564,7 +11087,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="30"/>
@@ -10585,7 +11108,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="30"/>
@@ -10606,7 +11129,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="30"/>
@@ -10627,7 +11150,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="30"/>
@@ -10648,7 +11171,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="30"/>
@@ -10669,7 +11192,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="30"/>
@@ -10690,7 +11213,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="30"/>
@@ -10711,7 +11234,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="30"/>
@@ -10732,7 +11255,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="30"/>
@@ -10753,7 +11276,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="30"/>
@@ -10774,7 +11297,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="30"/>
@@ -10795,7 +11318,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="30"/>
@@ -10816,7 +11339,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="30"/>
@@ -10837,7 +11360,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="30"/>
@@ -10858,7 +11381,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="30"/>
@@ -10879,7 +11402,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="24"/>
@@ -10900,7 +11423,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="24"/>
@@ -10921,7 +11444,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="24"/>
@@ -10942,7 +11465,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="24"/>
@@ -10963,7 +11486,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="24"/>
@@ -10984,7 +11507,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="24"/>
@@ -11005,7 +11528,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="24"/>
@@ -11026,7 +11549,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="24"/>
@@ -11047,7 +11570,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="24"/>
@@ -11068,7 +11591,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="24"/>
@@ -11089,7 +11612,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="24"/>
@@ -11110,7 +11633,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="24"/>
@@ -11131,7 +11654,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="24"/>
@@ -11152,7 +11675,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="24"/>
@@ -11173,7 +11696,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="24"/>
@@ -11194,7 +11717,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="24"/>
@@ -11215,7 +11738,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="24"/>
@@ -11236,7 +11759,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="24"/>
@@ -11257,7 +11780,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="24"/>
@@ -11278,7 +11801,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="24"/>
@@ -11299,7 +11822,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="24"/>
@@ -11320,7 +11843,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="24"/>
@@ -11341,7 +11864,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="24"/>
@@ -11362,7 +11885,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="24"/>
@@ -11383,7 +11906,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="24"/>
@@ -11404,7 +11927,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="24"/>
@@ -11425,7 +11948,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="24"/>
@@ -11446,7 +11969,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="24"/>
@@ -11467,7 +11990,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="24"/>
@@ -11488,7 +12011,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="24"/>
@@ -11509,7 +12032,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="24"/>
@@ -11530,7 +12053,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="24"/>
@@ -11551,7 +12074,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="24"/>
@@ -11572,7 +12095,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="24"/>
@@ -11593,7 +12116,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="24"/>
@@ -11614,7 +12137,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="24"/>
@@ -11635,7 +12158,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="24"/>
@@ -11656,7 +12179,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="24"/>
@@ -11677,7 +12200,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="24"/>
@@ -11698,7 +12221,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="24"/>
@@ -11719,7 +12242,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="24"/>
@@ -11740,7 +12263,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="24"/>
@@ -11761,7 +12284,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="24"/>
@@ -11782,7 +12305,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="24"/>
@@ -11803,7 +12326,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="24"/>
@@ -11824,7 +12347,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="24"/>
@@ -11845,7 +12368,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="24"/>
@@ -11866,7 +12389,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="24"/>
@@ -11887,7 +12410,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="24"/>
@@ -11908,7 +12431,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="24"/>
@@ -11929,7 +12452,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="24"/>
@@ -11950,7 +12473,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="24"/>
@@ -11971,7 +12494,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="24"/>
@@ -11992,7 +12515,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="24"/>
@@ -12013,7 +12536,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="24"/>
@@ -12034,7 +12557,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="24"/>
@@ -12055,7 +12578,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="24"/>
@@ -12076,7 +12599,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="24"/>
@@ -12097,7 +12620,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="24"/>
@@ -12118,7 +12641,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="24"/>
@@ -12139,7 +12662,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="24"/>
@@ -12160,7 +12683,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="24"/>
@@ -12181,7 +12704,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="24"/>
@@ -12202,7 +12725,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="24"/>
@@ -12223,7 +12746,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="24"/>
@@ -12244,7 +12767,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="24"/>
@@ -12265,7 +12788,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="24"/>
@@ -12286,7 +12809,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="24"/>
@@ -12307,7 +12830,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="24"/>
@@ -12328,7 +12851,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="24"/>
@@ -12349,7 +12872,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="24"/>
@@ -12370,7 +12893,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="24"/>
@@ -12391,7 +12914,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="24"/>
@@ -12412,7 +12935,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="24"/>
@@ -12433,7 +12956,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="24"/>
@@ -12454,7 +12977,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="24"/>
@@ -12475,7 +12998,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="24"/>
@@ -12496,7 +13019,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="24"/>
@@ -12517,7 +13040,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="24"/>
@@ -12538,7 +13061,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="24"/>
@@ -12559,7 +13082,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="24"/>
@@ -12580,7 +13103,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="24"/>
@@ -12601,7 +13124,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="24"/>
@@ -12622,7 +13145,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="24"/>
@@ -12643,7 +13166,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="24"/>
@@ -12664,7 +13187,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="24"/>
@@ -12685,7 +13208,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="24"/>
@@ -12706,7 +13229,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="24"/>
@@ -12727,7 +13250,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="24"/>
@@ -12748,7 +13271,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="24"/>
@@ -12769,7 +13292,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="24"/>
@@ -12790,7 +13313,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="24"/>
@@ -12811,7 +13334,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="24"/>
@@ -12832,7 +13355,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="24"/>
@@ -12853,7 +13376,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="24"/>
@@ -12874,7 +13397,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="24"/>
@@ -12895,7 +13418,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="24"/>
@@ -12928,22 +13451,22 @@
   <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="35.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="41.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="41.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
@@ -12969,7 +13492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>45321</v>
       </c>
@@ -12980,10 +13503,10 @@
         <v>0.49722222222222223</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>22</v>
@@ -12993,7 +13516,7 @@
         <v>2.8472222222222232E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>45321</v>
       </c>
@@ -13004,10 +13527,10 @@
         <v>0.49722222222222223</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
@@ -13017,7 +13540,7 @@
         <v>2.8472222222222232E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>45321</v>
       </c>
@@ -13028,20 +13551,20 @@
         <v>0.49722222222222223</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G4" s="21">
         <f t="shared" si="0"/>
         <v>2.8472222222222232E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>45321</v>
       </c>
@@ -13052,20 +13575,20 @@
         <v>0.49722222222222223</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" si="0"/>
         <v>2.8472222222222232E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>45321</v>
       </c>
@@ -13076,10 +13599,10 @@
         <v>0.49722222222222223</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>30</v>
@@ -13089,7 +13612,7 @@
         <v>2.4999999999999967E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>45321</v>
       </c>
@@ -13100,10 +13623,10 @@
         <v>0.51111111111111118</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>22</v>
@@ -13113,7 +13636,7 @@
         <v>1.1111111111111183E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>45321</v>
       </c>
@@ -13124,10 +13647,10 @@
         <v>0.51111111111111118</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>24</v>
@@ -13137,7 +13660,7 @@
         <v>1.1111111111111183E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>45321</v>
       </c>
@@ -13148,20 +13671,20 @@
         <v>0.51111111111111118</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="0"/>
         <v>1.1111111111111183E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>45321</v>
       </c>
@@ -13172,20 +13695,20 @@
         <v>0.51111111111111118</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="0"/>
         <v>1.1111111111111183E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -13196,8 +13719,11 @@
         <f>IF(D11="","",IF(C11&gt;B11,C11-B11,C11-B11+1))</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>45321</v>
       </c>
@@ -13208,10 +13734,10 @@
         <v>0.51111111111111118</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>30</v>
@@ -13221,224 +13747,440 @@
         <v>1.1111111111111183E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="21" t="str">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="21" t="str">
+        <v>1.805555555555538E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="21" t="str">
+        <v>1.805555555555538E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="21" t="str">
+        <v>0.10625000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.86875000000000002</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="21" t="str">
+        <v>9.3055555555555558E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="21" t="str">
+        <v>5.0694444444444375E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="21" t="str">
+        <v>5.0694444444444375E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="21" t="str">
+        <v>1.6666666666666607E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="21" t="str">
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>45323</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="21" t="str">
+        <v>5.4861111111111138E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>45323</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="21" t="str">
+        <v>5.4861111111111138E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>45323</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="21" t="str">
+        <v>9.5833333333333215E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>45323</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="21" t="str">
+        <v>9.5833333333333215E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>45323</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="21" t="str">
+        <v>9.5833333333333215E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>45324</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.92569444444444438</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.98541666666666661</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="21" t="str">
+        <v>5.9722222222222232E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>45324</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.92569444444444438</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0.9590277777777777</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="21" t="str">
+        <v>3.3333333333333326E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>45324</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="21" t="str">
+        <v>1.9444444444444375E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>45324</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="21" t="str">
+        <v>1.9444444444444375E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>45325</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+        <v>3.0555555555555669E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="9"/>
@@ -13448,32 +14190,59 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="21" t="str">
+      <c r="H31" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>45325</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="21" t="str">
+        <v>4.7916666666666829E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>45325</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="C33" s="17">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="21">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3.0555555555555669E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -13485,7 +14254,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -13497,7 +14266,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -13509,7 +14278,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -13521,7 +14290,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -13533,7 +14302,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -13545,7 +14314,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -13557,7 +14326,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -13569,7 +14338,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -13581,7 +14350,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -13593,7 +14362,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -13605,7 +14374,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -13617,7 +14386,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -13629,7 +14398,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -13641,7 +14410,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -13653,7 +14422,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -13665,7 +14434,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -13677,7 +14446,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -13689,7 +14458,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -13701,7 +14470,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -13713,7 +14482,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -13725,7 +14494,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -13737,7 +14506,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -13749,7 +14518,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -13761,7 +14530,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -13773,7 +14542,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -13785,7 +14554,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -13797,7 +14566,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -13809,7 +14578,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -13821,7 +14590,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -13833,7 +14602,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -13845,7 +14614,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -13857,7 +14626,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -13869,7 +14638,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -13881,7 +14650,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -13893,7 +14662,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -13905,7 +14674,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -13917,7 +14686,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -13929,7 +14698,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -13941,7 +14710,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -13953,7 +14722,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -13965,7 +14734,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -13977,7 +14746,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -13989,7 +14758,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -14001,7 +14770,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -14013,7 +14782,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -14025,7 +14794,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="31"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -14037,7 +14806,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="31"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -14049,7 +14818,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="31"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -14061,7 +14830,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -14073,7 +14842,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="31"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -14085,7 +14854,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -14097,7 +14866,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -14109,7 +14878,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -14121,7 +14890,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -14133,7 +14902,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -14145,7 +14914,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -14157,7 +14926,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -14169,7 +14938,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -14181,7 +14950,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -14193,7 +14962,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -14205,7 +14974,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -14217,7 +14986,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -14229,7 +14998,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -14241,7 +15010,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -14253,7 +15022,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -14265,7 +15034,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -14277,7 +15046,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -14289,7 +15058,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -14301,7 +15070,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -14313,7 +15082,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -14325,7 +15094,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -14337,7 +15106,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -14349,7 +15118,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -14361,7 +15130,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -14373,7 +15142,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -14385,7 +15154,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -14397,7 +15166,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -14409,7 +15178,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -14421,7 +15190,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -14433,7 +15202,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -14445,7 +15214,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -14457,7 +15226,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -14469,7 +15238,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -14481,7 +15250,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -14493,7 +15262,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -14505,7 +15274,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -14517,7 +15286,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -14529,7 +15298,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -14541,7 +15310,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -14553,7 +15322,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
@@ -14565,7 +15334,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -14577,7 +15346,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
@@ -14589,7 +15358,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -14601,7 +15370,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -14613,7 +15382,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -14625,7 +15394,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -14637,7 +15406,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -14649,7 +15418,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -14661,7 +15430,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
@@ -14673,7 +15442,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
@@ -14685,7 +15454,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -14697,7 +15466,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
@@ -14709,7 +15478,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -14721,7 +15490,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
@@ -14733,7 +15502,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
@@ -14745,7 +15514,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
@@ -14757,7 +15526,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -14769,7 +15538,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
@@ -14781,7 +15550,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
@@ -14793,7 +15562,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
@@ -14805,7 +15574,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
@@ -14817,7 +15586,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
@@ -14829,7 +15598,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
@@ -14841,7 +15610,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
@@ -14853,7 +15622,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
@@ -14865,7 +15634,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
@@ -14877,7 +15646,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
@@ -14889,7 +15658,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -14901,7 +15670,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -14913,7 +15682,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
@@ -14925,7 +15694,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
@@ -14937,7 +15706,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -14949,7 +15718,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
@@ -14961,7 +15730,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="16"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -14973,7 +15742,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="16"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -14985,7 +15754,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="16"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
@@ -14997,7 +15766,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="16"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -15009,7 +15778,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="16"/>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
@@ -15021,7 +15790,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="16"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -15033,7 +15802,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="16"/>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -15045,7 +15814,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="16"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -15057,7 +15826,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="16"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -15069,7 +15838,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="16"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
@@ -15081,7 +15850,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="16"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -15093,7 +15862,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="16"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
@@ -15105,7 +15874,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="16"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -15117,7 +15886,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="16"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -15129,7 +15898,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="16"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
@@ -15141,7 +15910,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="16"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -15153,7 +15922,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="16"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -15165,7 +15934,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="16"/>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -15177,7 +15946,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="16"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -15189,7 +15958,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="16"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -15201,7 +15970,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="16"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -15213,7 +15982,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="16"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -15225,7 +15994,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="16"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -15237,7 +16006,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="16"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -15249,7 +16018,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="16"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -15261,7 +16030,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="16"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -15273,7 +16042,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="16"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -15285,7 +16054,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="16"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -15297,7 +16066,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="16"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -15309,7 +16078,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="16"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -15321,7 +16090,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="16"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -15333,7 +16102,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="16"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -15345,7 +16114,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="16"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -15357,7 +16126,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="16"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -15369,7 +16138,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="16"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -15381,7 +16150,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="16"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
@@ -15393,7 +16162,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="16"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -15405,7 +16174,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="16"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -15417,7 +16186,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="16"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -15429,7 +16198,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="16"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -15441,7 +16210,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="16"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
@@ -15453,7 +16222,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="16"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -15465,7 +16234,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="16"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -15477,7 +16246,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="16"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -15489,7 +16258,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="16"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -15501,7 +16270,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="16"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -15513,7 +16282,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="16"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -15525,7 +16294,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="16"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -15537,7 +16306,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="16"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -15549,7 +16318,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="16"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -15561,7 +16330,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="16"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
@@ -15573,7 +16342,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="16"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -15585,7 +16354,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="16"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
@@ -15597,7 +16366,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="16"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -15609,7 +16378,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="16"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -15621,7 +16390,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="16"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -15633,7 +16402,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="16"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -15645,7 +16414,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="16"/>
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
@@ -15657,7 +16426,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="16"/>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
@@ -15669,7 +16438,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="16"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -15681,7 +16450,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="16"/>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
@@ -15693,7 +16462,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="16"/>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
@@ -15705,7 +16474,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="16"/>
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
@@ -15717,7 +16486,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="16"/>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
@@ -15729,7 +16498,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="16"/>
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
@@ -15741,7 +16510,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="16"/>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
@@ -15753,7 +16522,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="16"/>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
@@ -15765,7 +16534,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="16"/>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
@@ -15777,7 +16546,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="16"/>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
@@ -15789,7 +16558,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="16"/>
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
@@ -15801,7 +16570,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="16"/>
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
@@ -15813,7 +16582,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="16"/>
       <c r="B229" s="17"/>
       <c r="C229" s="17"/>
@@ -15825,7 +16594,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="16"/>
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
@@ -15837,7 +16606,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="16"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -15849,7 +16618,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="16"/>
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
@@ -15861,7 +16630,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="16"/>
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
@@ -15873,7 +16642,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="16"/>
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
@@ -15885,7 +16654,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="16"/>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
@@ -15897,7 +16666,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="16"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -15909,7 +16678,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="16"/>
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
@@ -15921,7 +16690,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="16"/>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -15933,7 +16702,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="16"/>
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
@@ -15945,7 +16714,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="16"/>
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
@@ -15957,7 +16726,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="16"/>
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
@@ -15969,7 +16738,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="16"/>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
@@ -15981,7 +16750,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="16"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
@@ -15993,7 +16762,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="16"/>
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
@@ -16005,7 +16774,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="16"/>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
@@ -16017,7 +16786,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="16"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
@@ -16029,7 +16798,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="16"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
@@ -16041,7 +16810,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="16"/>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
@@ -16053,7 +16822,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="16"/>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
@@ -16065,7 +16834,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="16"/>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
@@ -16077,7 +16846,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="16"/>
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
@@ -16089,7 +16858,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="16"/>
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
@@ -16101,7 +16870,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="16"/>
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
@@ -16113,7 +16882,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="16"/>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
@@ -16125,7 +16894,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="16"/>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
@@ -16137,7 +16906,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="16"/>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
@@ -16149,7 +16918,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="16"/>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
@@ -16161,7 +16930,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="16"/>
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
@@ -16173,7 +16942,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="16"/>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
@@ -16185,7 +16954,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="16"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
@@ -16197,7 +16966,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="16"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
@@ -16209,7 +16978,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="16"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
@@ -16221,7 +16990,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="16"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
@@ -16233,7 +17002,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="16"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
@@ -16245,7 +17014,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="16"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
@@ -16257,7 +17026,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="16"/>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
@@ -16269,7 +17038,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="16"/>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
@@ -16281,7 +17050,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="16"/>
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
@@ -16293,7 +17062,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="16"/>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
@@ -16305,7 +17074,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="16"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -16317,7 +17086,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="16"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
@@ -16329,7 +17098,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="16"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
@@ -16341,7 +17110,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="16"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
@@ -16353,7 +17122,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="16"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
@@ -16365,7 +17134,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="16"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
@@ -16377,7 +17146,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="16"/>
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
@@ -16389,7 +17158,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="16"/>
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
@@ -16401,7 +17170,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="16"/>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
@@ -16413,7 +17182,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="16"/>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
@@ -16425,7 +17194,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="16"/>
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
@@ -16437,7 +17206,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="16"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
@@ -16449,7 +17218,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="16"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
@@ -16461,7 +17230,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="16"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
@@ -16473,7 +17242,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="16"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
@@ -16485,7 +17254,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="16"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
@@ -16497,7 +17266,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="16"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -16509,7 +17278,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="16"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
@@ -16521,7 +17290,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="16"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
@@ -16533,7 +17302,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="16"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
@@ -16545,7 +17314,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="16"/>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
@@ -16557,7 +17326,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="16"/>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
@@ -16569,7 +17338,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="16"/>
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
@@ -16581,7 +17350,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="16"/>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
@@ -16593,7 +17362,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="16"/>
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
@@ -16605,7 +17374,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="16"/>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
@@ -16617,7 +17386,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="16"/>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
@@ -16629,7 +17398,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="16"/>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
@@ -16641,7 +17410,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="16"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
@@ -16653,7 +17422,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="16"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
@@ -16665,7 +17434,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="16"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
@@ -16677,7 +17446,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="16"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
@@ -16689,7 +17458,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="16"/>
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
@@ -16701,7 +17470,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="16"/>
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
@@ -16713,7 +17482,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="16"/>
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
@@ -16725,7 +17494,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="16"/>
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
@@ -16737,7 +17506,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="16"/>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
@@ -16749,7 +17518,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="16"/>
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
@@ -16761,7 +17530,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="16"/>
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
@@ -16773,7 +17542,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="16"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
@@ -16785,7 +17554,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="16"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
@@ -16797,7 +17566,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="16"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
@@ -16809,7 +17578,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="16"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
@@ -16821,7 +17590,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="16"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
@@ -16833,7 +17602,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="16"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
@@ -16845,7 +17614,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="16"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
@@ -16857,7 +17626,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="16"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
@@ -16869,7 +17638,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="16"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
@@ -16881,7 +17650,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="16"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
@@ -16893,7 +17662,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="16"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
@@ -16905,7 +17674,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="16"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
@@ -16917,7 +17686,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="16"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
@@ -16929,7 +17698,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="16"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
@@ -16941,7 +17710,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="16"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
@@ -16953,7 +17722,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="16"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
@@ -16965,7 +17734,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="16"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
@@ -16977,7 +17746,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="16"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
@@ -16989,7 +17758,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="16"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
@@ -17001,7 +17770,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="16"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
@@ -17013,7 +17782,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="16"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
@@ -17025,7 +17794,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="16"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
@@ -17037,7 +17806,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="16"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
@@ -17049,7 +17818,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="16"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
@@ -17061,7 +17830,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="16"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
@@ -17073,7 +17842,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="16"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
@@ -17085,7 +17854,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="16"/>
       <c r="B335" s="17"/>
       <c r="C335" s="17"/>
@@ -17097,7 +17866,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="16"/>
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
@@ -17109,7 +17878,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="16"/>
       <c r="B337" s="17"/>
       <c r="C337" s="17"/>
@@ -17121,7 +17890,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="16"/>
       <c r="B338" s="17"/>
       <c r="C338" s="17"/>
@@ -17133,7 +17902,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="16"/>
       <c r="B339" s="17"/>
       <c r="C339" s="17"/>
@@ -17145,7 +17914,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="16"/>
       <c r="B340" s="17"/>
       <c r="C340" s="17"/>
@@ -17157,7 +17926,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="16"/>
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
@@ -17169,7 +17938,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="16"/>
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
@@ -17181,7 +17950,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="16"/>
       <c r="B343" s="17"/>
       <c r="C343" s="17"/>
@@ -17193,7 +17962,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="16"/>
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
@@ -17205,7 +17974,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="16"/>
       <c r="B345" s="17"/>
       <c r="C345" s="17"/>
@@ -17217,7 +17986,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="16"/>
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
@@ -17229,7 +17998,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="16"/>
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
@@ -17241,7 +18010,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="16"/>
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
@@ -17253,7 +18022,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="16"/>
       <c r="B349" s="17"/>
       <c r="C349" s="17"/>
@@ -17265,7 +18034,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="16"/>
       <c r="B350" s="17"/>
       <c r="C350" s="17"/>
@@ -17277,7 +18046,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="16"/>
       <c r="B351" s="17"/>
       <c r="C351" s="17"/>
@@ -17289,7 +18058,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="16"/>
       <c r="B352" s="17"/>
       <c r="C352" s="17"/>
@@ -17301,7 +18070,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="16"/>
       <c r="B353" s="17"/>
       <c r="C353" s="17"/>
@@ -17313,7 +18082,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="16"/>
       <c r="B354" s="17"/>
       <c r="C354" s="17"/>
@@ -17325,7 +18094,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="16"/>
       <c r="B355" s="17"/>
       <c r="C355" s="17"/>
@@ -17337,7 +18106,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="16"/>
       <c r="B356" s="17"/>
       <c r="C356" s="17"/>
@@ -17349,7 +18118,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="16"/>
       <c r="B357" s="17"/>
       <c r="C357" s="17"/>
@@ -17361,7 +18130,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="16"/>
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
@@ -17373,7 +18142,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="16"/>
       <c r="B359" s="17"/>
       <c r="C359" s="17"/>
@@ -17385,7 +18154,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="16"/>
       <c r="B360" s="17"/>
       <c r="C360" s="17"/>
@@ -17397,7 +18166,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="16"/>
       <c r="B361" s="17"/>
       <c r="C361" s="17"/>
@@ -17409,7 +18178,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="16"/>
       <c r="B362" s="17"/>
       <c r="C362" s="17"/>
@@ -17421,7 +18190,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="16"/>
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
@@ -17433,7 +18202,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="16"/>
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
@@ -17445,7 +18214,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="16"/>
       <c r="B365" s="17"/>
       <c r="C365" s="17"/>
@@ -17457,7 +18226,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="16"/>
       <c r="B366" s="17"/>
       <c r="C366" s="17"/>
@@ -17469,7 +18238,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="16"/>
       <c r="B367" s="17"/>
       <c r="C367" s="17"/>
@@ -17481,7 +18250,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="16"/>
       <c r="B368" s="17"/>
       <c r="C368" s="17"/>
@@ -17493,7 +18262,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="16"/>
       <c r="B369" s="17"/>
       <c r="C369" s="17"/>
@@ -17505,7 +18274,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="16"/>
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
@@ -17517,7 +18286,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="16"/>
       <c r="B371" s="17"/>
       <c r="C371" s="17"/>
@@ -17529,7 +18298,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="16"/>
       <c r="B372" s="17"/>
       <c r="C372" s="17"/>
@@ -17541,7 +18310,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="16"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
@@ -17553,7 +18322,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="16"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
@@ -17565,7 +18334,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="16"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
@@ -17577,7 +18346,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="16"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
@@ -17589,7 +18358,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="16"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
@@ -17601,7 +18370,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="16"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
@@ -17613,7 +18382,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="16"/>
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
@@ -17625,7 +18394,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="16"/>
       <c r="B380" s="17"/>
       <c r="C380" s="17"/>
@@ -17637,7 +18406,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="16"/>
       <c r="B381" s="17"/>
       <c r="C381" s="17"/>
@@ -17649,7 +18418,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="16"/>
       <c r="B382" s="17"/>
       <c r="C382" s="17"/>
@@ -17661,7 +18430,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="16"/>
       <c r="B383" s="17"/>
       <c r="C383" s="17"/>
@@ -17673,7 +18442,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="16"/>
       <c r="B384" s="17"/>
       <c r="C384" s="17"/>
@@ -17685,7 +18454,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="16"/>
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
@@ -17697,7 +18466,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="16"/>
       <c r="B386" s="17"/>
       <c r="C386" s="17"/>
@@ -17709,7 +18478,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="16"/>
       <c r="B387" s="17"/>
       <c r="C387" s="17"/>
@@ -17721,7 +18490,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="16"/>
       <c r="B388" s="17"/>
       <c r="C388" s="17"/>
@@ -17733,7 +18502,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="16"/>
       <c r="B389" s="17"/>
       <c r="C389" s="17"/>
@@ -17745,7 +18514,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="16"/>
       <c r="B390" s="17"/>
       <c r="C390" s="17"/>
@@ -17757,7 +18526,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="16"/>
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
@@ -17769,7 +18538,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="16"/>
       <c r="B392" s="17"/>
       <c r="C392" s="17"/>
@@ -17781,7 +18550,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="16"/>
       <c r="B393" s="17"/>
       <c r="C393" s="17"/>
@@ -17793,7 +18562,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="16"/>
       <c r="B394" s="17"/>
       <c r="C394" s="17"/>
@@ -17805,7 +18574,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="16"/>
       <c r="B395" s="17"/>
       <c r="C395" s="17"/>
@@ -17817,7 +18586,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="16"/>
       <c r="B396" s="17"/>
       <c r="C396" s="17"/>
@@ -17829,7 +18598,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="16"/>
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
@@ -17841,7 +18610,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="16"/>
       <c r="B398" s="17"/>
       <c r="C398" s="17"/>
@@ -17853,7 +18622,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="16"/>
       <c r="B399" s="17"/>
       <c r="C399" s="17"/>
@@ -17865,7 +18634,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="16"/>
       <c r="B400" s="17"/>
       <c r="C400" s="17"/>
@@ -17877,7 +18646,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="16"/>
       <c r="B401" s="17"/>
       <c r="C401" s="17"/>
@@ -17889,7 +18658,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="16"/>
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
@@ -17901,7 +18670,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="16"/>
       <c r="B403" s="17"/>
       <c r="C403" s="17"/>
@@ -17913,7 +18682,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="16"/>
       <c r="B404" s="17"/>
       <c r="C404" s="17"/>
@@ -17925,7 +18694,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="16"/>
       <c r="B405" s="17"/>
       <c r="C405" s="17"/>
@@ -17937,7 +18706,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="16"/>
       <c r="B406" s="17"/>
       <c r="C406" s="17"/>
@@ -17949,7 +18718,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="16"/>
       <c r="B407" s="17"/>
       <c r="C407" s="17"/>
@@ -17961,7 +18730,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="16"/>
       <c r="B408" s="17"/>
       <c r="C408" s="17"/>
@@ -17973,7 +18742,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="16"/>
       <c r="B409" s="17"/>
       <c r="C409" s="17"/>
@@ -17985,7 +18754,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="16"/>
       <c r="B410" s="17"/>
       <c r="C410" s="17"/>
@@ -17997,7 +18766,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="16"/>
       <c r="B411" s="17"/>
       <c r="C411" s="17"/>
@@ -18009,7 +18778,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="16"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
@@ -18021,7 +18790,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="16"/>
       <c r="B413" s="17"/>
       <c r="C413" s="17"/>
@@ -18033,7 +18802,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="16"/>
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
@@ -18045,7 +18814,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="16"/>
       <c r="B415" s="17"/>
       <c r="C415" s="17"/>
@@ -18057,7 +18826,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="16"/>
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
@@ -18069,7 +18838,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="16"/>
       <c r="B417" s="17"/>
       <c r="C417" s="17"/>
@@ -18081,7 +18850,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="16"/>
       <c r="B418" s="17"/>
       <c r="C418" s="17"/>
@@ -18093,7 +18862,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="16"/>
       <c r="B419" s="17"/>
       <c r="C419" s="17"/>
@@ -18105,7 +18874,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="16"/>
       <c r="B420" s="17"/>
       <c r="C420" s="17"/>
@@ -18117,7 +18886,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="16"/>
       <c r="B421" s="17"/>
       <c r="C421" s="17"/>
@@ -18129,7 +18898,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="16"/>
       <c r="B422" s="17"/>
       <c r="C422" s="17"/>
@@ -18141,7 +18910,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="16"/>
       <c r="B423" s="17"/>
       <c r="C423" s="17"/>
@@ -18153,7 +18922,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="16"/>
       <c r="B424" s="17"/>
       <c r="C424" s="17"/>
@@ -18165,7 +18934,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="16"/>
       <c r="B425" s="17"/>
       <c r="C425" s="17"/>
@@ -18177,7 +18946,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="16"/>
       <c r="B426" s="17"/>
       <c r="C426" s="17"/>
@@ -18189,7 +18958,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="16"/>
       <c r="B427" s="17"/>
       <c r="C427" s="17"/>
@@ -18201,7 +18970,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="16"/>
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
@@ -18213,7 +18982,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="16"/>
       <c r="B429" s="17"/>
       <c r="C429" s="17"/>
@@ -18225,7 +18994,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="16"/>
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
@@ -18237,7 +19006,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="16"/>
       <c r="B431" s="17"/>
       <c r="C431" s="17"/>
@@ -18249,7 +19018,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="16"/>
       <c r="B432" s="17"/>
       <c r="C432" s="17"/>
@@ -18261,7 +19030,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="16"/>
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
@@ -18273,7 +19042,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="16"/>
       <c r="B434" s="17"/>
       <c r="C434" s="17"/>
@@ -18285,7 +19054,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="16"/>
       <c r="B435" s="17"/>
       <c r="C435" s="17"/>
@@ -18297,7 +19066,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="16"/>
       <c r="B436" s="17"/>
       <c r="C436" s="17"/>
@@ -18309,7 +19078,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="16"/>
       <c r="B437" s="17"/>
       <c r="C437" s="17"/>
@@ -18321,7 +19090,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="16"/>
       <c r="B438" s="17"/>
       <c r="C438" s="17"/>
@@ -18333,7 +19102,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="16"/>
       <c r="B439" s="17"/>
       <c r="C439" s="17"/>
@@ -18345,7 +19114,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="16"/>
       <c r="B440" s="17"/>
       <c r="C440" s="17"/>
@@ -18357,7 +19126,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="16"/>
       <c r="B441" s="17"/>
       <c r="C441" s="17"/>
@@ -18369,7 +19138,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="16"/>
       <c r="B442" s="17"/>
       <c r="C442" s="17"/>
@@ -18381,7 +19150,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="16"/>
       <c r="B443" s="17"/>
       <c r="C443" s="17"/>
@@ -18393,7 +19162,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="16"/>
       <c r="B444" s="17"/>
       <c r="C444" s="17"/>
@@ -18405,7 +19174,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="16"/>
       <c r="B445" s="17"/>
       <c r="C445" s="17"/>
@@ -18417,7 +19186,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="16"/>
       <c r="B446" s="17"/>
       <c r="C446" s="17"/>
@@ -18429,7 +19198,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="16"/>
       <c r="B447" s="17"/>
       <c r="C447" s="17"/>
@@ -18441,7 +19210,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="16"/>
       <c r="B448" s="17"/>
       <c r="C448" s="17"/>
@@ -18453,7 +19222,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="16"/>
       <c r="B449" s="17"/>
       <c r="C449" s="17"/>
@@ -18465,7 +19234,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="16"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
@@ -18477,7 +19246,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="16"/>
       <c r="B451" s="17"/>
       <c r="C451" s="17"/>
@@ -18489,7 +19258,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="16"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
@@ -18501,7 +19270,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="16"/>
       <c r="B453" s="17"/>
       <c r="C453" s="17"/>
@@ -18513,7 +19282,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="16"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
@@ -18525,7 +19294,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="16"/>
       <c r="B455" s="17"/>
       <c r="C455" s="17"/>
@@ -18537,7 +19306,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="16"/>
       <c r="B456" s="17"/>
       <c r="C456" s="17"/>
@@ -18549,7 +19318,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="16"/>
       <c r="B457" s="17"/>
       <c r="C457" s="17"/>
@@ -18561,7 +19330,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="16"/>
       <c r="B458" s="17"/>
       <c r="C458" s="17"/>
@@ -18573,7 +19342,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="16"/>
       <c r="B459" s="17"/>
       <c r="C459" s="17"/>
@@ -18585,7 +19354,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="16"/>
       <c r="B460" s="17"/>
       <c r="C460" s="17"/>
@@ -18597,7 +19366,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="16"/>
       <c r="B461" s="17"/>
       <c r="C461" s="17"/>
@@ -18609,7 +19378,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="16"/>
       <c r="B462" s="17"/>
       <c r="C462" s="17"/>
@@ -18621,7 +19390,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="16"/>
       <c r="B463" s="17"/>
       <c r="C463" s="17"/>
@@ -18633,7 +19402,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="16"/>
       <c r="B464" s="17"/>
       <c r="C464" s="17"/>
@@ -18645,7 +19414,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="16"/>
       <c r="B465" s="17"/>
       <c r="C465" s="17"/>
@@ -18657,7 +19426,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="16"/>
       <c r="B466" s="17"/>
       <c r="C466" s="17"/>
@@ -18669,7 +19438,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="16"/>
       <c r="B467" s="17"/>
       <c r="C467" s="17"/>
@@ -18681,7 +19450,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="16"/>
       <c r="B468" s="17"/>
       <c r="C468" s="17"/>
@@ -18693,7 +19462,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="16"/>
       <c r="B469" s="17"/>
       <c r="C469" s="17"/>
@@ -18705,7 +19474,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="16"/>
       <c r="B470" s="17"/>
       <c r="C470" s="17"/>
@@ -18717,7 +19486,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="16"/>
       <c r="B471" s="17"/>
       <c r="C471" s="17"/>
@@ -18729,7 +19498,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="16"/>
       <c r="B472" s="17"/>
       <c r="C472" s="17"/>
@@ -18741,7 +19510,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="16"/>
       <c r="B473" s="17"/>
       <c r="C473" s="17"/>
@@ -18753,7 +19522,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="16"/>
       <c r="B474" s="17"/>
       <c r="C474" s="17"/>
@@ -18765,7 +19534,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="16"/>
       <c r="B475" s="17"/>
       <c r="C475" s="17"/>
@@ -18777,7 +19546,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="16"/>
       <c r="B476" s="17"/>
       <c r="C476" s="17"/>
@@ -18789,7 +19558,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="16"/>
       <c r="B477" s="17"/>
       <c r="C477" s="17"/>
@@ -18801,7 +19570,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="16"/>
       <c r="B478" s="17"/>
       <c r="C478" s="17"/>
@@ -18813,7 +19582,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="16"/>
       <c r="B479" s="17"/>
       <c r="C479" s="17"/>
@@ -18825,7 +19594,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="16"/>
       <c r="B480" s="17"/>
       <c r="C480" s="17"/>
@@ -18837,7 +19606,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="16"/>
       <c r="B481" s="17"/>
       <c r="C481" s="17"/>
@@ -18849,7 +19618,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="16"/>
       <c r="B482" s="17"/>
       <c r="C482" s="17"/>
@@ -18861,7 +19630,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="16"/>
       <c r="B483" s="17"/>
       <c r="C483" s="17"/>
@@ -18873,7 +19642,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="16"/>
       <c r="B484" s="17"/>
       <c r="C484" s="17"/>
@@ -18885,7 +19654,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="16"/>
       <c r="B485" s="17"/>
       <c r="C485" s="17"/>
@@ -18897,7 +19666,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="16"/>
       <c r="B486" s="17"/>
       <c r="C486" s="17"/>
@@ -18909,7 +19678,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="16"/>
       <c r="B487" s="17"/>
       <c r="C487" s="17"/>
@@ -18921,7 +19690,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="16"/>
       <c r="B488" s="17"/>
       <c r="C488" s="17"/>
@@ -18933,7 +19702,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="16"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
@@ -18945,7 +19714,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="16"/>
       <c r="B490" s="17"/>
       <c r="C490" s="17"/>
@@ -18957,7 +19726,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="16"/>
       <c r="B491" s="17"/>
       <c r="C491" s="17"/>
@@ -18969,7 +19738,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="16"/>
       <c r="B492" s="17"/>
       <c r="C492" s="17"/>
@@ -18981,7 +19750,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="16"/>
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
@@ -18993,7 +19762,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="16"/>
       <c r="B494" s="17"/>
       <c r="C494" s="17"/>
@@ -19005,7 +19774,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="16"/>
       <c r="B495" s="17"/>
       <c r="C495" s="17"/>
@@ -19017,7 +19786,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="16"/>
       <c r="B496" s="17"/>
       <c r="C496" s="17"/>
@@ -19029,7 +19798,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="16"/>
       <c r="B497" s="17"/>
       <c r="C497" s="17"/>
@@ -19041,7 +19810,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="16"/>
       <c r="B498" s="17"/>
       <c r="C498" s="17"/>
@@ -19053,7 +19822,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="16"/>
       <c r="B499" s="17"/>
       <c r="C499" s="17"/>
@@ -19065,7 +19834,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="16"/>
       <c r="B500" s="17"/>
       <c r="C500" s="17"/>
@@ -19130,18 +19899,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -19149,7 +19916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -19157,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>21</v>
       </c>
@@ -19165,80 +19932,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="29">
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="29">
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="29">
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.94513888888888897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="29">
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="29">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="29">
+        <v>3.6111111111111115E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="29">
+        <v>0.19930555555555557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="29">
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0.10972222222222222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="29">
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.10902777777777778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="29">
+        <v>0.10902777777777778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="29">
-        <v>0.19444444444444445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18"/>
+      <c r="B18" s="29">
+        <v>1.1930555555555555</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19250,29 +20062,29 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -19281,12 +20093,11 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -19294,20 +20105,22 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -19315,35 +20128,35 @@
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="D3" s="29">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="E3" s="29">
-        <v>3.6111111111111108E-2</v>
-      </c>
-      <c r="F3"/>
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29">
+        <v>0.24444444444444444</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="29">
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="D4" s="29">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="E4" s="29">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="F4"/>
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29">
+        <v>0.22638888888888889</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -19351,35 +20164,39 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="D5" s="29">
-        <v>1.1111111111111112E-2</v>
+        <v>0.19027777777777777</v>
       </c>
       <c r="E5" s="29">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="F5"/>
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.24930555555555556</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6" s="29">
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>1.1111111111111112E-2</v>
+        <v>0.18124999999999997</v>
       </c>
       <c r="E6" s="29">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="F6"/>
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.25763888888888886</v>
+      </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -19387,17 +20204,19 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="D7" s="29">
-        <v>1.1111111111111112E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="E7" s="29">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="F7"/>
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.21527777777777779</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19406,15 +20225,15 @@
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="29">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29">
         <v>0</v>
       </c>
-      <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -19425,65 +20244,68 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="D9" s="29">
-        <v>5.5555555555555559E-2</v>
+        <v>0.94513888888888875</v>
       </c>
       <c r="E9" s="29">
-        <v>0.19444444444444445</v>
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1.1930555555555555</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="D10" s="1"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="G18"/>
       <c r="H18"/>
@@ -19502,18 +20324,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="104" width="11.5" style="29"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="104" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -19527,7 +20348,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -19535,13 +20356,13 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -19553,7 +20374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -19564,9 +20385,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="29">
         <v>3.6111111111111108E-2</v>
@@ -19587,65 +20408,110 @@
         <v>0.19444444444444445</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="29">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="C5" s="29">
+        <v>5.7638888888888892E-2</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="F5" s="29">
+        <v>8.5416666666666669E-2</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0.36041666666666672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="29">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="C6" s="29">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="D6" s="29">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0.3972222222222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="29">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="C7" s="29">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="F7" s="29">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0.13194444444444445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="29">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="E8" s="29">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="F8" s="29">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.10902777777777778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="29">
-        <v>3.6111111111111108E-2</v>
-      </c>
-      <c r="C5" s="29">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="D5" s="29">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="E5" s="29">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="F5" s="29">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="G5" s="29">
+      <c r="B9" s="29">
+        <v>0.24444444444444441</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.22638888888888886</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0.24930555555555556</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0.25763888888888886</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="G9" s="29">
         <v>0</v>
       </c>
-      <c r="H5" s="29">
-        <v>0.19444444444444445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="29">
+        <v>1.1930555555555555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -19653,7 +20519,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -19661,7 +20527,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -19669,7 +20535,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -19677,7 +20543,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -19685,7 +20551,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -19693,7 +20559,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -19701,7 +20567,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -19709,7 +20575,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -19717,7 +20583,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -19725,7 +20591,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -19733,7 +20599,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -19741,7 +20607,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -19749,7 +20615,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -19757,7 +20623,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -19765,7 +20631,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -19773,7 +20639,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -19781,7 +20647,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -19789,7 +20655,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -19797,7 +20663,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -19805,7 +20671,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -19813,7 +20679,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -19830,11 +20696,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
